--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="SEMANA 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Global" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Iniciacion" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Estrategia" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Requirimientos" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Planeacion" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="plkUza+Zd7XB90KizLOaJDNsQdgGkpY+xQo3eK0Pchs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="qP3lBintI87cZXgD9Y1k1eMmrkwAJ4v6goMgRes2usc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="100">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -274,6 +278,48 @@
   </si>
   <si>
     <t xml:space="preserve">Diagrama de clase </t>
+  </si>
+  <si>
+    <t>Control de Asignaciones separado cada fase</t>
+  </si>
+  <si>
+    <t>60 minutos</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>Script de definiciones 3</t>
+  </si>
+  <si>
+    <t>Documento Final 3</t>
+  </si>
+  <si>
+    <t>Especificacion detallada de tareas</t>
+  </si>
+  <si>
+    <t>Plan de calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control de Asignaciones </t>
+  </si>
+  <si>
+    <t>Script de definiciones 4</t>
+  </si>
+  <si>
+    <t>Documento Final 4</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>Lider De Equipo</t>
+  </si>
+  <si>
+    <t>5pm</t>
   </si>
 </sst>
 </file>
@@ -672,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -775,6 +821,9 @@
     <xf borderId="32" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="32" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="32" fillId="0" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="32" fillId="0" fontId="6" numFmtId="21" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="32" fillId="0" fontId="6" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -783,9 +832,6 @@
     </xf>
     <xf borderId="32" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -799,8 +845,11 @@
     <xf borderId="32" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="32" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,6 +890,22 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1754,7 +1819,9 @@
       <c r="C18" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E18" s="49" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1873,9 @@
       <c r="C19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E19" s="49" t="s">
         <v>50</v>
       </c>
@@ -1858,7 +1927,9 @@
       <c r="C20" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E20" s="49" t="s">
         <v>58</v>
       </c>
@@ -1910,7 +1981,9 @@
       <c r="C21" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E21" s="49" t="s">
         <v>61</v>
       </c>
@@ -1962,7 +2035,9 @@
       <c r="C22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E22" s="49" t="s">
         <v>58</v>
       </c>
@@ -1972,22 +2047,22 @@
       <c r="G22" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="54">
         <v>0.0</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="55">
         <v>0.0</v>
       </c>
       <c r="L22" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="56" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2001,7 +2076,9 @@
       <c r="C23" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E23" s="49" t="s">
         <v>58</v>
       </c>
@@ -2053,7 +2130,9 @@
       <c r="C24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E24" s="49" t="s">
         <v>32</v>
       </c>
@@ -2096,29 +2175,31 @@
       <c r="Z24" s="47"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="52" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="58">
@@ -2148,29 +2229,31 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="52" t="s">
         <v>73</v>
       </c>
       <c r="J26" s="58">
@@ -2200,29 +2283,31 @@
       <c r="Z26" s="47"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="57" t="s">
+      <c r="D27" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="52" t="s">
         <v>75</v>
       </c>
       <c r="J27" s="58">
@@ -2252,29 +2337,31 @@
       <c r="Z27" s="47"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="57" t="s">
+      <c r="D28" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="I28" s="52" t="s">
         <v>78</v>
       </c>
       <c r="J28" s="58">
@@ -2304,22 +2391,24 @@
       <c r="Z28" s="47"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E29" s="49"/>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="52" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="50"/>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="52" t="s">
         <v>74</v>
       </c>
       <c r="I29" s="50"/>
@@ -2348,29 +2437,31 @@
       <c r="Z29" s="47"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="57" t="s">
+      <c r="D30" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="52" t="s">
         <v>81</v>
       </c>
       <c r="J30" s="58">
@@ -2400,22 +2491,24 @@
       <c r="Z30" s="47"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E31" s="49"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="52" t="s">
         <v>74</v>
       </c>
       <c r="G31" s="50"/>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="52" t="s">
         <v>74</v>
       </c>
       <c r="I31" s="50"/>
@@ -2444,27 +2537,29 @@
       <c r="Z31" s="47"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E32" s="49"/>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="57" t="s">
+      <c r="I32" s="52" t="s">
         <v>55</v>
       </c>
       <c r="J32" s="58">
@@ -2492,27 +2587,29 @@
       <c r="Z32" s="47"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="52">
+        <v>1.0</v>
+      </c>
       <c r="E33" s="49"/>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="52" t="s">
         <v>65</v>
       </c>
       <c r="J33" s="58">
@@ -2540,19 +2637,45 @@
       <c r="Z33" s="47"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="51"/>
+      <c r="A34" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="N34" s="47"/>
       <c r="O34" s="47"/>
       <c r="P34" s="47"/>
@@ -2568,19 +2691,45 @@
       <c r="Z34" s="47"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="51"/>
+      <c r="A35" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
@@ -2596,19 +2745,45 @@
       <c r="Z35" s="47"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
+      <c r="A36" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
       <c r="P36" s="47"/>
@@ -2624,19 +2799,45 @@
       <c r="Z36" s="47"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
+      <c r="A37" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
@@ -2652,19 +2853,45 @@
       <c r="Z37" s="47"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
+      <c r="A38" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>42</v>
+      </c>
       <c r="N38" s="47"/>
       <c r="O38" s="47"/>
       <c r="P38" s="47"/>
@@ -2680,8 +2907,12 @@
       <c r="Z38" s="47"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
@@ -2708,124 +2939,258 @@
       <c r="Z39" s="47"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="62"/>
+      <c r="A40" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="49"/>
+      <c r="F40" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="62"/>
+      <c r="A41" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="51"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="62"/>
+      <c r="A42" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="61" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="62"/>
+      <c r="A43" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" s="61" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="62"/>
+      <c r="A44" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="62"/>
+      <c r="A45" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="62">
+        <v>45910.0</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="J45" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
+      <c r="A46" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="62">
+        <v>45911.0</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
+      <c r="A47" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="51"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="24"/>
@@ -17138,4 +17503,2248 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.63"/>
+    <col customWidth="1" min="13" max="13" width="36.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="43">
+        <v>45877.0</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="43">
+        <v>45877.0</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="43">
+        <v>45878.0</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="43">
+        <v>45878.0</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="49">
+        <v>45880.0</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="49">
+        <v>45880.0</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="49">
+        <v>45881.0</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="46"/>
+      <c r="M14" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="62">
+        <v>45903.0</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.88"/>
+    <col customWidth="1" min="13" max="13" width="23.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="62">
+        <v>45910.0</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="62">
+        <v>45909.0</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -9,19 +9,21 @@
     <sheet state="visible" name="Requirimientos" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Planeacion" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Diseño" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Implementacion" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Pruebas" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="Fi6LylXlyzpTRPPqUq6S051w4RZ4MjDgA1AhkSFfpUE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="0bTgdUsiLItmuAOxZOx23ZHWS23dXwf749cNXMUh5l4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="174">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -499,6 +501,51 @@
   <si>
     <t>9 horas y 10 minutos</t>
   </si>
+  <si>
+    <t>ControlAsignaciones</t>
+  </si>
+  <si>
+    <t>9/29/2025</t>
+  </si>
+  <si>
+    <t>Log Defectos</t>
+  </si>
+  <si>
+    <t>9/29/205</t>
+  </si>
+  <si>
+    <t>9/30/2025</t>
+  </si>
+  <si>
+    <t>Documento Final 6</t>
+  </si>
+  <si>
+    <t>Maestro de Documento</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Implementacion</t>
+  </si>
+  <si>
+    <t>Excel Plan de Pruebas Unitarias(Informe)</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Se hizo la revision</t>
+  </si>
+  <si>
+    <t>Correcion</t>
+  </si>
+  <si>
+    <t>Se hizo las correciones</t>
+  </si>
+  <si>
+    <t>780 minutos</t>
+  </si>
+  <si>
+    <t>13 Horas</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +577,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -568,6 +614,7 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -596,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border/>
     <border>
       <left style="medium">
@@ -822,15 +869,6 @@
       </bottom>
     </border>
     <border>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -905,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -964,70 +1002,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="4" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1063,103 +1088,101 @@
     <xf borderId="24" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="4" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="21" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="21" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="32" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,6 +1242,14 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1598,15 +1629,15 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1622,839 +1653,839 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="49.5" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>1.0</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>45877.0</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>45877.0</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>0.0</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>10.0</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>1.0</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>45878.0</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <v>45878.0</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>0.0</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <v>1.0</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>1.0</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>45881.0</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>45881.0</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="41">
         <v>0.0</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="36">
         <v>0.0</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>1.0</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>45880.0</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>45880.0</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="41">
         <v>0.0</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="42" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>1.0</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>45881.0</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>45881.0</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <v>0.0</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <v>0.0</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>1.0</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>45881.0</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="38">
+      <c r="G13" s="43"/>
+      <c r="H13" s="37">
         <v>45881.0</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="42">
+      <c r="I13" s="43"/>
+      <c r="J13" s="41">
         <v>0.0</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="36">
         <v>0.0</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>1.0</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>45881.0</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="38">
+      <c r="G14" s="43"/>
+      <c r="H14" s="37">
         <v>45881.0</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="42">
+      <c r="I14" s="43"/>
+      <c r="J14" s="41">
         <v>0.0</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <v>0.0</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>1.0</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>45881.0</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="38">
+      <c r="G15" s="43"/>
+      <c r="H15" s="37">
         <v>45881.0</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="42">
+      <c r="I15" s="43"/>
+      <c r="J15" s="41">
         <v>0.0</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>0.0</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>1.0</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="41">
         <v>0.0</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>0.0</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>1.0</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="41">
         <v>0.0</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>0.0</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <v>1.0</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <v>0.0</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="36">
         <v>0.0</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <v>1.0</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="41">
         <v>0.0</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="36">
         <v>0.0</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <v>1.0</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="41">
         <v>0.0</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <v>0.0</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="44">
         <v>1.0</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="41">
         <v>0.0</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <v>0.0</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="44">
         <v>1.0</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="46">
         <v>0.0</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="47">
         <v>0.0</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="47" t="s">
         <v>42</v>
       </c>
       <c r="N22" s="6"/>
@@ -2472,935 +2503,935 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="44">
         <v>1.0</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="41">
         <v>0.0</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="36">
         <v>0.0</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="44">
         <v>1.0</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="41">
         <v>0.0</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="36">
         <v>0.0</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <v>1.0</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="41">
         <v>0.0</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="36">
         <v>0.0</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <v>1.0</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="41">
         <v>0.0</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="36">
         <v>0.0</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="44">
         <v>1.0</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="41">
         <v>0.0</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="36">
         <v>0.0</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="44">
         <v>1.0</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="41">
         <v>0.0</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="36">
         <v>0.0</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="44">
         <v>1.0</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="50">
+      <c r="I29" s="43"/>
+      <c r="J29" s="41">
         <v>0.0</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="36">
         <v>0.0</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="50" t="s">
+      <c r="L29" s="41"/>
+      <c r="M29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="44">
         <v>1.0</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="41">
         <v>0.0</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="36">
         <v>0.0</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="44">
         <v>1.0</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="50">
+      <c r="I31" s="43"/>
+      <c r="J31" s="41">
         <v>0.0</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="36">
         <v>0.0</v>
       </c>
-      <c r="L31" s="42"/>
-      <c r="M31" s="50" t="s">
+      <c r="L31" s="41"/>
+      <c r="M31" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="44">
         <v>1.0</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="41">
         <v>0.0</v>
       </c>
-      <c r="K32" s="49">
+      <c r="K32" s="36">
         <v>0.0</v>
       </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="50" t="s">
+      <c r="L32" s="41"/>
+      <c r="M32" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="44">
         <v>1.0</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="41">
         <v>0.0</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="36">
         <v>0.0</v>
       </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="50" t="s">
+      <c r="L33" s="41"/>
+      <c r="M33" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="44">
         <v>1.0</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="37">
         <v>45909.0</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="41">
         <v>0.0</v>
       </c>
-      <c r="K34" s="49">
+      <c r="K34" s="36">
         <v>0.0</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="50" t="s">
+      <c r="M34" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="44">
         <v>1.0</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="37">
         <v>45909.0</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="41">
         <v>0.0</v>
       </c>
-      <c r="K35" s="49">
+      <c r="K35" s="36">
         <v>0.0</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M35" s="50" t="s">
+      <c r="M35" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="44">
         <v>1.0</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="37">
         <v>45909.0</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="41">
         <v>0.0</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="36">
         <v>0.0</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="50" t="s">
+      <c r="M36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="44">
         <v>1.0</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="37">
         <v>45903.0</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="37">
         <v>45903.0</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="41">
         <v>0.0</v>
       </c>
-      <c r="K37" s="49">
+      <c r="K37" s="36">
         <v>0.0</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="44">
         <v>1.0</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="37">
         <v>45903.0</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="37">
         <v>45903.0</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="41">
         <v>0.0</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="36">
         <v>0.0</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="44">
         <v>1.0</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="37">
         <v>45903.0</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="51">
+      <c r="H39" s="37">
         <v>45903.0</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="41">
         <v>0.0</v>
       </c>
-      <c r="K39" s="49">
+      <c r="K39" s="36">
         <v>0.0</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M39" s="50" t="s">
+      <c r="M39" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="44">
         <v>1.0</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G40" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3416,33 +3447,33 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="44">
         <v>1.0</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -3458,43 +3489,43 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="44">
         <v>1.0</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="37">
         <v>45909.0</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="41">
         <v>0.0</v>
       </c>
-      <c r="K42" s="49">
+      <c r="K42" s="36">
         <v>0.0</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N42" s="6"/>
@@ -3512,43 +3543,43 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="44">
         <v>1.0</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G43" s="45" t="s">
+      <c r="G43" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="37">
         <v>45909.0</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="50">
+      <c r="J43" s="41">
         <v>0.0</v>
       </c>
-      <c r="K43" s="49">
+      <c r="K43" s="36">
         <v>0.0</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M43" s="50" t="s">
+      <c r="M43" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N43" s="6"/>
@@ -3566,31 +3597,31 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="44">
         <v>1.0</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3606,41 +3637,41 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="44">
         <v>1.0</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="37">
         <v>45910.0</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="50">
+      <c r="I45" s="44"/>
+      <c r="J45" s="41">
         <v>0.0</v>
       </c>
-      <c r="K45" s="49">
+      <c r="K45" s="36">
         <v>0.0</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N45" s="6"/>
@@ -3658,41 +3689,41 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="44">
         <v>1.0</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="37">
         <v>45909.0</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="37">
         <v>45911.0</v>
       </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="50">
+      <c r="I46" s="44"/>
+      <c r="J46" s="41">
         <v>0.0</v>
       </c>
-      <c r="K46" s="49">
+      <c r="K46" s="36">
         <v>0.0</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="41" t="s">
         <v>42</v>
       </c>
       <c r="N46" s="6"/>
@@ -3710,21 +3741,21 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -30456,8 +30487,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -30469,7 +30500,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="55"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2">
@@ -30488,10 +30519,10 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -30503,7 +30534,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="17"/>
@@ -30520,430 +30551,430 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="68">
         <v>1.0</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="70">
         <v>45877.0</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="70">
         <v>45877.0</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="71">
         <v>0.0</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="72">
         <v>10.0</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="68">
         <v>1.0</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="70">
         <v>45878.0</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="70">
         <v>45878.0</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>0.0</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="72">
         <v>1.0</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="69" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="68">
         <v>1.0</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="75">
         <v>45881.0</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="75">
         <v>45881.0</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="71">
         <v>0.0</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="72">
         <v>0.0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="68">
         <v>1.0</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="75">
         <v>45880.0</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="75">
         <v>45880.0</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="71">
         <v>0.0</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79" t="s">
+      <c r="K11" s="72"/>
+      <c r="L11" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="68">
         <v>1.0</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="75">
         <v>45881.0</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="75">
         <v>45881.0</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="71">
         <v>0.0</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="72">
         <v>0.0</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="68">
         <v>1.0</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="75">
         <v>45881.0</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="75">
         <v>45881.0</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="71">
         <v>0.0</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="72">
         <v>0.0</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="68">
         <v>1.0</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="75">
         <v>45881.0</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="75">
         <v>45881.0</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="71">
         <v>0.0</v>
       </c>
-      <c r="K14" s="78">
+      <c r="K14" s="72">
         <v>0.0</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="68">
         <v>1.0</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="75">
         <v>45881.0</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="75">
         <v>45881.0</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="71">
         <v>0.0</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="72">
         <v>0.0</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="85" t="s">
+      <c r="M15" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="79" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="79" t="s">
         <v>105</v>
       </c>
     </row>
@@ -30977,8 +31008,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -30990,7 +31021,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="55"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2">
@@ -31009,10 +31040,10 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -31024,7 +31055,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="17"/>
@@ -31041,613 +31072,613 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="68">
         <v>1.0</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="71">
         <v>0.0</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="72">
         <v>0.0</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="68">
         <v>1.0</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>0.0</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="72">
         <v>0.0</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="78">
         <v>1.0</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="71">
         <v>0.0</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="72">
         <v>0.0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="78">
         <v>1.0</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="71">
         <v>0.0</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="72">
         <v>0.0</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="78">
         <v>1.0</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="71">
         <v>0.0</v>
       </c>
-      <c r="K12" s="78">
+      <c r="K12" s="72">
         <v>0.0</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="78">
         <v>1.0</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="71">
         <v>0.0</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="72">
         <v>0.0</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="78">
         <v>1.0</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="82">
         <v>0.0</v>
       </c>
-      <c r="K14" s="91">
+      <c r="K14" s="83">
         <v>0.0</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="84" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="78">
         <v>1.0</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="71">
         <v>0.0</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="72">
         <v>0.0</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="85" t="s">
+      <c r="M15" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="78">
         <v>1.0</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="71">
         <v>0.0</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="72">
         <v>0.0</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M16" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="78">
         <v>1.0</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="71">
         <v>0.0</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="72">
         <v>0.0</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="96" t="s">
+      <c r="M17" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="64">
         <v>1.0</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="85">
         <v>0.4375</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="64">
         <v>0.0</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="64">
         <v>0.0</v>
       </c>
-      <c r="L18" s="97">
+      <c r="L18" s="64">
         <v>0.0</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="64">
         <v>1.0</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="64">
         <v>0.0</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="64">
         <v>0.0</v>
       </c>
-      <c r="L19" s="97">
+      <c r="L19" s="64">
         <v>0.0</v>
       </c>
-      <c r="M19" s="97" t="s">
+      <c r="M19" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="86"/>
     </row>
     <row r="24">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="87">
         <v>620.0</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="87">
         <v>600.0</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -31678,8 +31709,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -31691,7 +31722,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="55"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2">
@@ -31710,10 +31741,10 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -31725,7 +31756,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="17"/>
@@ -31742,742 +31773,742 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="78">
         <v>1.0</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="71">
         <v>0.0</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="72">
         <v>0.0</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="78">
         <v>1.0</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="71">
         <v>0.0</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="72">
         <v>0.0</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="78">
         <v>1.0</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="71">
         <v>0.0</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="72">
         <v>0.0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="78">
         <v>1.0</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="71">
         <v>0.0</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="72">
         <v>0.0</v>
       </c>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="96" t="s">
+      <c r="M11" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="78">
         <v>1.0</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="71">
         <v>0.0</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="72">
         <v>0.0</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="96" t="s">
+      <c r="M12" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="78">
         <v>1.0</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="71">
         <v>0.0</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="72">
         <v>0.0</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="96" t="s">
+      <c r="M13" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="78">
         <v>1.0</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="71">
         <v>0.0</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="72">
         <v>0.0</v>
       </c>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="96" t="s">
+      <c r="M14" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="78">
         <v>1.0</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="71">
         <v>0.0</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="72">
         <v>0.0</v>
       </c>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="96" t="s">
+      <c r="M15" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="78">
         <v>1.0</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="I16" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="71">
         <v>0.0</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="72">
         <v>0.0</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="78">
         <v>1.0</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="71">
         <v>0.0</v>
       </c>
-      <c r="K17" s="95">
+      <c r="K17" s="72">
         <v>0.0</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="M17" s="73" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="78">
         <v>1.0</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="75">
         <v>45903.0</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="102">
+      <c r="H18" s="75">
         <v>45903.0</v>
       </c>
-      <c r="I18" s="86" t="s">
+      <c r="I18" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="71">
         <v>0.0</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="72">
         <v>0.0</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="96" t="s">
+      <c r="M18" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="78">
         <v>1.0</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="75">
         <v>45903.0</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="75">
         <v>45903.0</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I19" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="71">
         <v>0.0</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="72">
         <v>0.0</v>
       </c>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="96" t="s">
+      <c r="M19" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="78">
         <v>1.0</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="I20" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="71">
         <v>0.0</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="72">
         <v>0.0</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="85"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="64">
         <v>1.0</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="97">
+      <c r="J21" s="64">
         <v>0.0</v>
       </c>
-      <c r="K21" s="97">
+      <c r="K21" s="64">
         <v>0.0</v>
       </c>
-      <c r="L21" s="97">
+      <c r="L21" s="64">
         <v>0.0</v>
       </c>
-      <c r="M21" s="97" t="s">
+      <c r="M21" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="64">
         <v>1.0</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="97" t="s">
+      <c r="I22" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="64">
         <v>0.0</v>
       </c>
-      <c r="K22" s="97">
+      <c r="K22" s="64">
         <v>0.0</v>
       </c>
-      <c r="L22" s="97">
+      <c r="L22" s="64">
         <v>0.0</v>
       </c>
-      <c r="M22" s="97" t="s">
+      <c r="M22" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="86"/>
     </row>
     <row r="27">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="86"/>
     </row>
     <row r="30">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
     </row>
     <row r="31">
-      <c r="A31" s="87"/>
+      <c r="A31" s="79"/>
     </row>
     <row r="32">
-      <c r="A32" s="87"/>
+      <c r="A32" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -32509,8 +32540,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -32522,7 +32553,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="55"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2">
@@ -32541,10 +32572,10 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -32556,7 +32587,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="17"/>
@@ -32573,570 +32604,570 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="78">
         <v>1.0</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="71">
         <v>0.0</v>
       </c>
-      <c r="K8" s="95">
+      <c r="K8" s="72">
         <v>0.0</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="78">
         <v>1.0</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="71">
         <v>0.0</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="72">
         <v>0.0</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="78">
         <v>1.0</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="71">
         <v>0.0</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="72">
         <v>0.0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="78">
         <v>1.0</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="71">
         <v>0.0</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="72">
         <v>0.0</v>
       </c>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="96" t="s">
+      <c r="M11" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="78">
         <v>1.0</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="71">
         <v>0.0</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="72">
         <v>0.0</v>
       </c>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="73" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="78">
         <v>1.0</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="71">
         <v>0.0</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="72">
         <v>0.0</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="96" t="s">
+      <c r="M13" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="78">
         <v>1.0</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="75">
         <v>45910.0</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="71">
         <v>0.0</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="72">
         <v>0.0</v>
       </c>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="96" t="s">
+      <c r="M14" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="78">
         <v>1.0</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="71">
         <v>0.0</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="72">
         <v>0.0</v>
       </c>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="96" t="s">
+      <c r="M15" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="78">
         <v>1.0</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="75">
         <v>45909.0</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="75">
         <v>45909.0</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="I16" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="71">
         <v>0.0</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="72">
         <v>0.0</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="64">
         <v>1.0</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="85">
         <v>0.4375</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="97">
+      <c r="J17" s="64">
         <v>0.0</v>
       </c>
-      <c r="K17" s="97">
+      <c r="K17" s="64">
         <v>0.0</v>
       </c>
-      <c r="L17" s="97">
+      <c r="L17" s="64">
         <v>0.0</v>
       </c>
-      <c r="M17" s="97" t="s">
+      <c r="M17" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="64">
         <v>1.0</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="64">
         <v>0.0</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="64">
         <v>0.0</v>
       </c>
-      <c r="L18" s="97">
+      <c r="L18" s="64">
         <v>0.0</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="87"/>
+      <c r="A19" s="79"/>
     </row>
     <row r="20">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="79" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="79">
         <v>260.0</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="79" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="87">
+      <c r="B22" s="79">
         <v>300.0</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="79" t="s">
         <v>32</v>
       </c>
     </row>
@@ -33171,8 +33202,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -33184,7 +33215,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="55"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2">
@@ -33203,10 +33234,10 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14"/>
@@ -33218,7 +33249,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="17"/>
@@ -33235,886 +33266,886 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="67" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="64">
         <v>1.0</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="64">
         <v>0.0</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="64">
         <v>0.0</v>
       </c>
-      <c r="L8" s="97">
+      <c r="L8" s="64">
         <v>0.0</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="M8" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="64">
         <v>1.0</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="64">
         <v>0.0</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="64">
         <v>0.0</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="64">
         <v>0.0</v>
       </c>
-      <c r="M9" s="97" t="s">
+      <c r="M9" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="64">
         <v>1.0</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="64">
         <v>0.0</v>
       </c>
-      <c r="K10" s="97">
+      <c r="K10" s="64">
         <v>0.0</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L10" s="64">
         <v>0.0</v>
       </c>
-      <c r="M10" s="97" t="s">
+      <c r="M10" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="64">
         <v>1.0</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="64">
         <v>0.0</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="64">
         <v>0.0</v>
       </c>
-      <c r="L11" s="97">
+      <c r="L11" s="64">
         <v>0.0</v>
       </c>
-      <c r="M11" s="97" t="s">
+      <c r="M11" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="64">
         <v>1.0</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="I12" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="64">
         <v>0.0</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="64">
         <v>0.0</v>
       </c>
-      <c r="L12" s="97">
+      <c r="L12" s="64">
         <v>0.0</v>
       </c>
-      <c r="M12" s="97" t="s">
+      <c r="M12" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="64">
         <v>1.0</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="97" t="s">
+      <c r="I13" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="64">
         <v>0.0</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="64">
         <v>0.0</v>
       </c>
-      <c r="L13" s="97">
+      <c r="L13" s="64">
         <v>0.0</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="64">
         <v>1.0</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="97">
+      <c r="J14" s="64">
         <v>0.0</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="64">
         <v>0.0</v>
       </c>
-      <c r="L14" s="97">
+      <c r="L14" s="64">
         <v>0.0</v>
       </c>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="64">
         <v>1.0</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="I15" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="64">
         <v>0.0</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="64">
         <v>0.0</v>
       </c>
-      <c r="L15" s="97">
+      <c r="L15" s="64">
         <v>0.0</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="M15" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="64">
         <v>1.0</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="97" t="s">
+      <c r="H16" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="97" t="s">
+      <c r="I16" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="97">
+      <c r="J16" s="64">
         <v>0.0</v>
       </c>
-      <c r="K16" s="97">
+      <c r="K16" s="64">
         <v>0.0</v>
       </c>
-      <c r="L16" s="97">
+      <c r="L16" s="64">
         <v>0.0</v>
       </c>
-      <c r="M16" s="97" t="s">
+      <c r="M16" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="64">
         <v>1.0</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="97">
+      <c r="J17" s="64">
         <v>0.0</v>
       </c>
-      <c r="K17" s="97">
+      <c r="K17" s="64">
         <v>0.0</v>
       </c>
-      <c r="L17" s="97">
+      <c r="L17" s="64">
         <v>0.0</v>
       </c>
-      <c r="M17" s="97" t="s">
+      <c r="M17" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="64">
         <v>1.0</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="97" t="s">
+      <c r="G18" s="64"/>
+      <c r="H18" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="97">
+      <c r="I18" s="64"/>
+      <c r="J18" s="64">
         <v>0.0</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="64">
         <v>0.0</v>
       </c>
-      <c r="L18" s="97">
+      <c r="L18" s="64">
         <v>0.0</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="64">
         <v>1.0</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="64">
         <v>0.0</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="64">
         <v>0.0</v>
       </c>
-      <c r="L19" s="97">
+      <c r="L19" s="64">
         <v>0.0</v>
       </c>
-      <c r="M19" s="97" t="s">
+      <c r="M19" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="64">
         <v>1.0</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="97" t="s">
+      <c r="G20" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="97" t="s">
+      <c r="H20" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="97" t="s">
+      <c r="I20" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="64">
         <v>0.0</v>
       </c>
-      <c r="K20" s="97">
+      <c r="K20" s="64">
         <v>0.0</v>
       </c>
-      <c r="L20" s="97">
+      <c r="L20" s="64">
         <v>0.0</v>
       </c>
-      <c r="M20" s="97" t="s">
+      <c r="M20" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="64">
         <v>1.0</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97" t="s">
+      <c r="G21" s="64"/>
+      <c r="H21" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97">
+      <c r="I21" s="64"/>
+      <c r="J21" s="64">
         <v>0.0</v>
       </c>
-      <c r="K21" s="97">
+      <c r="K21" s="64">
         <v>0.0</v>
       </c>
-      <c r="L21" s="97">
+      <c r="L21" s="64">
         <v>0.0</v>
       </c>
-      <c r="M21" s="97" t="s">
+      <c r="M21" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="64">
         <v>1.0</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="97" t="s">
+      <c r="F22" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="97" t="s">
+      <c r="I22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="97">
+      <c r="J22" s="64">
         <v>0.0</v>
       </c>
-      <c r="K22" s="97">
+      <c r="K22" s="64">
         <v>0.0</v>
       </c>
-      <c r="L22" s="97">
+      <c r="L22" s="64">
         <v>0.0</v>
       </c>
-      <c r="M22" s="97" t="s">
+      <c r="M22" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="64">
         <v>1.0</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="97" t="s">
+      <c r="F23" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="97" t="s">
+      <c r="I23" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="97">
+      <c r="J23" s="64">
         <v>0.0</v>
       </c>
-      <c r="K23" s="97">
+      <c r="K23" s="64">
         <v>0.0</v>
       </c>
-      <c r="L23" s="97">
+      <c r="L23" s="64">
         <v>0.0</v>
       </c>
-      <c r="M23" s="97" t="s">
+      <c r="M23" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="64">
         <v>1.0</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="97" t="s">
+      <c r="H24" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="97" t="s">
+      <c r="I24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="97">
+      <c r="J24" s="64">
         <v>0.0</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="64">
         <v>0.0</v>
       </c>
-      <c r="L24" s="97">
+      <c r="L24" s="64">
         <v>0.0</v>
       </c>
-      <c r="M24" s="97" t="s">
+      <c r="M24" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="64">
         <v>1.0</v>
       </c>
-      <c r="E25" s="97" t="s">
+      <c r="E25" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="97" t="s">
+      <c r="F25" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="85">
         <v>0.4375</v>
       </c>
-      <c r="H25" s="97" t="s">
+      <c r="H25" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="97" t="s">
+      <c r="I25" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="97">
+      <c r="J25" s="64">
         <v>0.0</v>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="64">
         <v>0.0</v>
       </c>
-      <c r="L25" s="97">
+      <c r="L25" s="64">
         <v>0.0</v>
       </c>
-      <c r="M25" s="97" t="s">
+      <c r="M25" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="64">
         <v>1.0</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="97" t="s">
+      <c r="G26" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="97" t="s">
+      <c r="H26" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="97" t="s">
+      <c r="I26" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="97">
+      <c r="J26" s="64">
         <v>0.0</v>
       </c>
-      <c r="K26" s="97">
+      <c r="K26" s="64">
         <v>0.0</v>
       </c>
-      <c r="L26" s="97">
+      <c r="L26" s="64">
         <v>0.0</v>
       </c>
-      <c r="M26" s="97" t="s">
+      <c r="M26" s="64" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="79" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="87">
+      <c r="B29" s="79">
         <v>530.0</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="79" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="79">
         <v>550.0</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -34131,4 +34162,582 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col customWidth="1" min="13" max="13" width="25.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="91">
+        <v>180.0</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="91">
+        <v>180.0</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="181">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -541,19 +541,41 @@
     <t>Se hizo las correciones</t>
   </si>
   <si>
-    <t>780 minutos</t>
+    <t>Script de Implementacion</t>
   </si>
   <si>
-    <t>13 Horas</t>
+    <t>840 minutos</t>
+  </si>
+  <si>
+    <t>14 horas</t>
+  </si>
+  <si>
+    <t>Documento Final 7</t>
+  </si>
+  <si>
+    <t>Plantilla de casos de Prueba</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Pruebas</t>
+  </si>
+  <si>
+    <t>Se realizo la revision</t>
+  </si>
+  <si>
+    <t>Correciones</t>
+  </si>
+  <si>
+    <t>Se realizo las correcciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -943,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1183,6 +1205,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -34695,22 +34726,63 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="99" t="s">
+      <c r="A17" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C20" s="99" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="99" t="s">
+    <row r="21">
+      <c r="A21" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="99" t="s">
+      <c r="B21" s="99" t="s">
         <v>173</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -34737,7 +34809,538 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.25"/>
+    <col customWidth="1" min="13" max="13" width="25.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="100">
+        <v>45932.0</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="100">
+        <v>45932.0</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="100">
+        <v>45932.0</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="100">
+        <v>45932.0</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="101">
+        <v>45932.0</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="101">
+        <v>45932.0</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="102">
+        <v>45932.0</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="102">
+        <v>45932.0</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="102">
+        <v>45932.0</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="102">
+        <v>45932.0</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="89">
+        <v>180.0</v>
+      </c>
+      <c r="F13" s="102">
+        <v>45934.0</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="102">
+        <v>45936.0</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="89">
+        <v>180.0</v>
+      </c>
+      <c r="F14" s="102">
+        <v>45934.0</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="102">
+        <v>45936.0</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F15" s="102">
+        <v>45934.0</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="102">
+        <v>45936.0</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="89">
+        <v>120.0</v>
+      </c>
+      <c r="F16" s="102">
+        <v>45934.0</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="102">
+        <v>45936.0</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -11,19 +11,20 @@
     <sheet state="visible" name="Diseño" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Implementacion" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Pruebas" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Postmortem" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="0bTgdUsiLItmuAOxZOx23ZHWS23dXwf749cNXMUh5l4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="UzAwHupl5Yd+PM3eJazV/11ewQz7jMNICK4+nhCdPlI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="190">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -566,6 +567,33 @@
   </si>
   <si>
     <t>Se realizo las correcciones</t>
+  </si>
+  <si>
+    <t>Script Pruebas</t>
+  </si>
+  <si>
+    <t>15 horas</t>
+  </si>
+  <si>
+    <t>ControlAsignaciones *</t>
+  </si>
+  <si>
+    <t>Bitacora(Individual) *</t>
+  </si>
+  <si>
+    <t>Documento Final 8</t>
+  </si>
+  <si>
+    <t>Maestro de Documento*</t>
+  </si>
+  <si>
+    <t>Documento Informe de Postmortem</t>
+  </si>
+  <si>
+    <t>Presentacion de Postmortem</t>
+  </si>
+  <si>
+    <t>Script Postmortem</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1312,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -35330,6 +35362,671 @@
         <v>180</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F17" s="102">
+        <v>45935.0</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="102">
+        <v>45935.0</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="99">
+        <v>900.0</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.38"/>
+    <col customWidth="1" min="13" max="13" width="28.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="63"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="100">
+        <v>45936.0</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="100">
+        <v>45936.0</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="92">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="100">
+        <v>45936.0</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="100">
+        <v>45936.0</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="91">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="101">
+        <v>45936.0</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="101">
+        <v>45936.0</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="G11" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="89">
+        <v>180.0</v>
+      </c>
+      <c r="F13" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="102">
+        <v>45943.0</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="89">
+        <v>180.0</v>
+      </c>
+      <c r="F14" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F15" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="89">
+        <v>120.0</v>
+      </c>
+      <c r="F16" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="102">
+        <v>45944.0</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="89">
+        <v>60.0</v>
+      </c>
+      <c r="F17" s="102">
+        <v>45937.0</v>
+      </c>
+      <c r="G17" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="102">
+        <v>45937.0</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="99">
+        <v>900.0</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A2"/>

--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -11,19 +11,22 @@
     <sheet state="visible" name="Implementacion" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Pruebas" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Postmortem" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Fase 2 Iniciacion y Estrategi" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Requerimiento y Planeacion" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="DiseñoImplementacion" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="owqzRhr+epvKSJO9FgeIKPcdHw5LqNrod8lVLxIYJWI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="LvWNga3CUesMFNL11b0Kg017nK4Iz72bvmcI/jCiqg4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="383">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -1070,6 +1073,108 @@
   </si>
   <si>
     <t>Fase Postmortem</t>
+  </si>
+  <si>
+    <t>Script Iniciacion/Estrategia*</t>
+  </si>
+  <si>
+    <t>10/23/2025</t>
+  </si>
+  <si>
+    <t>Bitacora(Individual)*</t>
+  </si>
+  <si>
+    <t>10/27/2025</t>
+  </si>
+  <si>
+    <t>Control Asignaciones*</t>
+  </si>
+  <si>
+    <t>Informe Final</t>
+  </si>
+  <si>
+    <t>10/25/2025</t>
+  </si>
+  <si>
+    <t>Acta Reunion*</t>
+  </si>
+  <si>
+    <t>Maestro de documento*</t>
+  </si>
+  <si>
+    <t>Acta de Iniciacion*</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>Reglas de funcionamiento del equipo y compromiso colectivo</t>
+  </si>
+  <si>
+    <t>10/24/2025</t>
+  </si>
+  <si>
+    <t>Full Correccion</t>
+  </si>
+  <si>
+    <t>10/28/2025</t>
+  </si>
+  <si>
+    <t>Plantilla detalle de caso de uso 1*</t>
+  </si>
+  <si>
+    <t>Plantilla detalle de caso de uso 2*</t>
+  </si>
+  <si>
+    <t>Plantilla detalle de caso de uso 3*</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 1*</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 2*</t>
+  </si>
+  <si>
+    <t>Requerimientos de atributo de calidad 3*</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 1*</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 2*</t>
+  </si>
+  <si>
+    <t>Escenario de calidad 3*</t>
+  </si>
+  <si>
+    <t>Bitacora Individual*</t>
+  </si>
+  <si>
+    <t>Log de defectos*</t>
+  </si>
+  <si>
+    <t>Control de Asignaciones*</t>
+  </si>
+  <si>
+    <t>Script Requerimiento/Planeacion*</t>
+  </si>
+  <si>
+    <t>Documento Final Requerimiento/Planeacion*</t>
+  </si>
+  <si>
+    <t>Especificacion detallada de tareas*</t>
+  </si>
+  <si>
+    <t>Plan de Calidad*</t>
+  </si>
+  <si>
+    <t>11:50pm</t>
+  </si>
+  <si>
+    <t>20 horas y 50 minutos</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1574,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1644,6 +1749,10 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="31" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1655,6 +1764,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,7 +1788,7 @@
     <xdr:ext cx="5772150" cy="3467100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1695,6 +1807,14 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1742,7 +1862,7 @@
     <xdr:ext cx="6238875" cy="3743325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1767,12 +1887,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7162800" cy="4305300"/>
+    <xdr:ext cx="5676900" cy="3409950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
@@ -1808,7 +1928,7 @@
     <xdr:ext cx="7162800" cy="4305300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1833,12 +1953,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7162800" cy="4305300"/>
+    <xdr:ext cx="4848225" cy="2914650"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
@@ -1897,6 +2017,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3731,6 +3855,995 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.25"/>
+    <col customWidth="1" min="3" max="3" width="17.38"/>
+    <col customWidth="1" min="13" max="13" width="28.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="18.0" customHeight="1">
+      <c r="A10" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F13" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F14" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J14" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F15" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F16" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F17" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="80">
+        <v>45968.0</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J17" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F18" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="80">
+        <v>45968.0</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F19" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F20" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F21" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="80">
+        <v>45967.0</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F23" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F24" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>180.0</v>
+      </c>
+      <c r="F25" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H25" s="81">
+        <v>45968.0</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J25" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>50.0</v>
+      </c>
+      <c r="F26" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="H26" s="81">
+        <v>45967.0</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J26" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="58">
+        <v>1250.0</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -9189,7 +10302,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="78"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9206,7 +10319,7 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="79"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9351,13 +10464,13 @@
       <c r="E8" s="40">
         <v>60.0</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="80">
         <v>45932.0</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="80">
         <v>45932.0</v>
       </c>
       <c r="I8" s="40" t="s">
@@ -9392,13 +10505,13 @@
       <c r="E9" s="40">
         <v>60.0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="80">
         <v>45932.0</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="80">
         <v>45932.0</v>
       </c>
       <c r="I9" s="40" t="s">
@@ -9433,13 +10546,13 @@
       <c r="E10" s="66">
         <v>60.0</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="81">
         <v>45932.0</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="81">
         <v>45932.0</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -10171,7 +11284,7 @@
       <c r="A31" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="80">
+      <c r="B31" s="82">
         <v>900.0</v>
       </c>
       <c r="C31" s="77" t="s">
@@ -10188,12 +11301,10 @@
     </row>
     <row r="38">
       <c r="A38" s="77"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="77"/>
+      <c r="B38" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="7">
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="A3:A4"/>
@@ -10383,13 +11494,13 @@
       <c r="E8" s="40">
         <v>60.0</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="80">
         <v>45936.0</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="80">
         <v>45936.0</v>
       </c>
       <c r="I8" s="40" t="s">
@@ -10424,13 +11535,13 @@
       <c r="E9" s="40">
         <v>60.0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="80">
         <v>45936.0</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="80">
         <v>45936.0</v>
       </c>
       <c r="I9" s="40" t="s">
@@ -10465,13 +11576,13 @@
       <c r="E10" s="66">
         <v>60.0</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="81">
         <v>45936.0</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="81">
         <v>45936.0</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -10817,7 +11928,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="52" t="s">
@@ -11917,6 +13028,3282 @@
       </c>
       <c r="F55" s="58" t="s">
         <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="41.75"/>
+    <col customWidth="1" min="13" max="13" width="26.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="66">
+        <v>270.0</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J15" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J16" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J17" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>15.0</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J19" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>20.0</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>15.0</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J21" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="52">
+        <v>15.0</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J22" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J24" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J25" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J26" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J27" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J28" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J29" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J30" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J31" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J32" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J33" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J34" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J35" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H36" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J36" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J37" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J39" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="52"/>
+      <c r="B41" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="52"/>
+      <c r="B42" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="52"/>
+      <c r="B43" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="52"/>
+      <c r="B44" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I45" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I46" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I47" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I48" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I49" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I50" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I51" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I52" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I53" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I54" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I55" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I56" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I57" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I58" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I59" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I60" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I61" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I62" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I63" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I64" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I65" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I66" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I67" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I68" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I69" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I70" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I71" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I72" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I73" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I75" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I76" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I77" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I78" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K78" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I79" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L79" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G80" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I80" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K80" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="52"/>
+      <c r="B81" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K81" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="52"/>
+      <c r="B82" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L82" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M82" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="52"/>
+      <c r="B83" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K83" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L83" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="52"/>
+      <c r="B84" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="52"/>
+      <c r="B85" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E86" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F86" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G86" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J86" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E87" s="52">
+        <v>180.0</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G87" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="I87" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J87" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L87" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="76" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -13,20 +13,21 @@
     <sheet state="visible" name="Postmortem" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Fase 2 Iniciacion y Estrategi" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Requerimiento y Planeacion" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="DiseñoImplementacion" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Diseño Fase 2" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="ImplementacionPruebas" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="LvWNga3CUesMFNL11b0Kg017nK4Iz72bvmcI/jCiqg4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="VVjppWzoWMLZFurxCYHrHZC23wAbURUMoZS+e0z7Cac="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="430">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -1075,6 +1076,66 @@
     <t>Fase Postmortem</t>
   </si>
   <si>
+    <t xml:space="preserve">Cantidad de actividades por integrante y fase </t>
+  </si>
+  <si>
+    <t>Tareas no planeados</t>
+  </si>
+  <si>
+    <t>Porcentaje libre de defectos</t>
+  </si>
+  <si>
+    <t>Comparacion de tiempos</t>
+  </si>
+  <si>
+    <t>Tiempo invertido</t>
+  </si>
+  <si>
+    <t>Diagramas</t>
+  </si>
+  <si>
+    <t>Diagrama de Informacion</t>
+  </si>
+  <si>
+    <t>Diagrama de despliegue y desarrollo</t>
+  </si>
+  <si>
+    <t>Pruebas Unitarias</t>
+  </si>
+  <si>
+    <t>Analisis de proceso</t>
+  </si>
+  <si>
+    <t>Analisis de esfuerzo</t>
+  </si>
+  <si>
+    <t>Analisis del producto final</t>
+  </si>
+  <si>
+    <t>DOFA</t>
+  </si>
+  <si>
+    <t>Propuesta de mejora para la fase 2</t>
+  </si>
+  <si>
+    <t>Mejora de procesos</t>
+  </si>
+  <si>
+    <t>Mejora de tecnica</t>
+  </si>
+  <si>
+    <t>Mejora funcional</t>
+  </si>
+  <si>
+    <t>Mejora en la coordinacion del equipo</t>
+  </si>
+  <si>
+    <t>Mejora de satisfaccion del usuario</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
     <t>Script Iniciacion/Estrategia*</t>
   </si>
   <si>
@@ -1175,6 +1236,87 @@
   </si>
   <si>
     <t>20 horas y 50 minutos</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Control de asignaciones *</t>
+  </si>
+  <si>
+    <t>Log de Defectos*</t>
+  </si>
+  <si>
+    <t>Script de diseño fase 2*</t>
+  </si>
+  <si>
+    <t>Documento Final Diseño Fase 2*</t>
+  </si>
+  <si>
+    <t>Maestro de documento</t>
+  </si>
+  <si>
+    <t>ControlAsignaciones*</t>
+  </si>
+  <si>
+    <t>11/16/2025</t>
+  </si>
+  <si>
+    <t>11/17/2025</t>
+  </si>
+  <si>
+    <t>Plantilla Plan de Implementacion*</t>
+  </si>
+  <si>
+    <t>Soporte de ejecucion*</t>
+  </si>
+  <si>
+    <t>Definir criterios de completitud del diseño*</t>
+  </si>
+  <si>
+    <t>Estandares de Implementacion*</t>
+  </si>
+  <si>
+    <t>Estrategia de implementacion*</t>
+  </si>
+  <si>
+    <t>Revisiones e inspecciones de codigo*</t>
+  </si>
+  <si>
+    <t>Evaluacion de completitud de diseño*</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias*</t>
+  </si>
+  <si>
+    <t>Gestion de defectos*</t>
+  </si>
+  <si>
+    <t>Plantilla de casos de Prueba*</t>
+  </si>
+  <si>
+    <t>Plantilla plan pruebas</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>Plan de pruebas</t>
+  </si>
+  <si>
+    <t>Plan de pruebas del sistema</t>
+  </si>
+  <si>
+    <t>Plan de pruebas de aceptacion</t>
+  </si>
+  <si>
+    <t>Script Implementacion/Pruebas</t>
+  </si>
+  <si>
+    <t>Documento Final Implementacion/Pruebas</t>
+  </si>
+  <si>
+    <t>Correccion</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1768,6 +1910,12 @@
     <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="29" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1788,7 +1936,7 @@
     <xdr:ext cx="5772150" cy="3467100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1814,6 +1962,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1862,7 +2014,7 @@
     <xdr:ext cx="6238875" cy="3743325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1928,7 +2080,7 @@
     <xdr:ext cx="7162800" cy="4305300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1961,7 +2113,7 @@
     <xdr:ext cx="4848225" cy="2914650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1990,9 +2142,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4714875" cy="2828925"/>
@@ -4019,7 +4171,7 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>22</v>
@@ -4060,7 +4212,7 @@
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>22</v>
@@ -4101,7 +4253,7 @@
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>22</v>
@@ -4142,7 +4294,7 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>22</v>
@@ -4160,13 +4312,13 @@
         <v>45967.0</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="H11" s="81">
         <v>45967.0</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="J11" s="74">
         <v>0.0</v>
@@ -4183,7 +4335,7 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>22</v>
@@ -4224,7 +4376,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>22</v>
@@ -4265,7 +4417,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -4283,13 +4435,13 @@
         <v>45967.0</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H14" s="80">
         <v>45967.0</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J14" s="74">
         <v>0.0</v>
@@ -4306,7 +4458,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>22</v>
@@ -4347,7 +4499,7 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>22</v>
@@ -4388,7 +4540,7 @@
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>22</v>
@@ -4406,13 +4558,13 @@
         <v>45968.0</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="H17" s="80">
         <v>45968.0</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="J17" s="74">
         <v>0.0</v>
@@ -4429,7 +4581,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>22</v>
@@ -4470,7 +4622,7 @@
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>22</v>
@@ -4511,7 +4663,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>22</v>
@@ -4552,7 +4704,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>22</v>
@@ -4593,7 +4745,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>22</v>
@@ -4634,7 +4786,7 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>22</v>
@@ -4734,13 +4886,13 @@
         <v>45968.0</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H25" s="81">
         <v>45968.0</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J25" s="74">
         <v>0.0</v>
@@ -4757,7 +4909,7 @@
     </row>
     <row r="26">
       <c r="A26" s="52" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>22</v>
@@ -4775,13 +4927,13 @@
         <v>45967.0</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="H26" s="81">
         <v>45967.0</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="J26" s="74">
         <v>0.0</v>
@@ -4812,7 +4964,7 @@
         <v>1250.0</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4991,3043 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.25"/>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="86">
+        <v>45971.0</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="G25" s="64">
+        <v>0.4375</v>
+      </c>
+      <c r="H25" s="86">
+        <v>45972.0</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="86">
+        <v>45973.0</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="86">
+        <v>45973.0</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="85">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="86">
+        <v>45973.0</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="86">
+        <v>45973.0</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="85">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="85">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="85">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.63"/>
+    <col customWidth="1" min="13" max="13" width="25.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>120.0</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>120.0</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>10.0</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="66">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>20.0</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>20.0</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="52">
+        <v>120.0</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="52">
+        <v>150.0</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="52">
+        <v>30.0</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J37" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J38" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="52">
+        <v>40.0</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I44" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="52">
+        <v>10.0</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J48" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="52">
+        <v>120.0</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="H53" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="J53" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -11327,7 +14515,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
+    <col customWidth="1" min="1" max="1" width="48.63"/>
     <col customWidth="1" min="13" max="13" width="28.0"/>
   </cols>
   <sheetData>
@@ -11901,7 +15089,9 @@
       <c r="D18" s="52">
         <v>1.0</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F18" s="57">
         <v>45943.0</v>
       </c>
@@ -11940,7 +15130,9 @@
       <c r="D19" s="52">
         <v>1.0</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F19" s="57">
         <v>45943.0</v>
       </c>
@@ -11979,7 +15171,9 @@
       <c r="D20" s="52">
         <v>1.0</v>
       </c>
-      <c r="E20" s="52"/>
+      <c r="E20" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F20" s="57">
         <v>45943.0</v>
       </c>
@@ -12018,7 +15212,9 @@
       <c r="D21" s="52">
         <v>1.0</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F21" s="57">
         <v>45943.0</v>
       </c>
@@ -12057,7 +15253,9 @@
       <c r="D22" s="52">
         <v>1.0</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F22" s="57">
         <v>45943.0</v>
       </c>
@@ -12096,7 +15294,9 @@
       <c r="D23" s="52">
         <v>1.0</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F23" s="57">
         <v>45943.0</v>
       </c>
@@ -12135,7 +15335,9 @@
       <c r="D24" s="52">
         <v>1.0</v>
       </c>
-      <c r="E24" s="52"/>
+      <c r="E24" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F24" s="57">
         <v>45943.0</v>
       </c>
@@ -12174,7 +15376,9 @@
       <c r="D25" s="52">
         <v>1.0</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F25" s="57">
         <v>45943.0</v>
       </c>
@@ -12213,7 +15417,9 @@
       <c r="D26" s="52">
         <v>1.0</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F26" s="57">
         <v>45943.0</v>
       </c>
@@ -12252,7 +15458,9 @@
       <c r="D27" s="52">
         <v>1.0</v>
       </c>
-      <c r="E27" s="52"/>
+      <c r="E27" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F27" s="57">
         <v>45943.0</v>
       </c>
@@ -12291,7 +15499,9 @@
       <c r="D28" s="52">
         <v>1.0</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F28" s="57">
         <v>45943.0</v>
       </c>
@@ -12330,7 +15540,9 @@
       <c r="D29" s="52">
         <v>1.0</v>
       </c>
-      <c r="E29" s="52"/>
+      <c r="E29" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F29" s="57">
         <v>45943.0</v>
       </c>
@@ -12369,7 +15581,9 @@
       <c r="D30" s="52">
         <v>1.0</v>
       </c>
-      <c r="E30" s="52"/>
+      <c r="E30" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F30" s="57">
         <v>45943.0</v>
       </c>
@@ -12408,7 +15622,9 @@
       <c r="D31" s="52">
         <v>1.0</v>
       </c>
-      <c r="E31" s="52"/>
+      <c r="E31" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F31" s="57">
         <v>45943.0</v>
       </c>
@@ -12447,7 +15663,9 @@
       <c r="D32" s="52">
         <v>1.0</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F32" s="57">
         <v>45943.0</v>
       </c>
@@ -12486,7 +15704,9 @@
       <c r="D33" s="52">
         <v>1.0</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F33" s="57">
         <v>45943.0</v>
       </c>
@@ -12525,7 +15745,9 @@
       <c r="D34" s="52">
         <v>1.0</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F34" s="57">
         <v>45943.0</v>
       </c>
@@ -12564,7 +15786,9 @@
       <c r="D35" s="52">
         <v>1.0</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F35" s="57">
         <v>45943.0</v>
       </c>
@@ -12603,7 +15827,9 @@
       <c r="D36" s="52">
         <v>1.0</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F36" s="57">
         <v>45943.0</v>
       </c>
@@ -12642,7 +15868,9 @@
       <c r="D37" s="52">
         <v>1.0</v>
       </c>
-      <c r="E37" s="52"/>
+      <c r="E37" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F37" s="57">
         <v>45943.0</v>
       </c>
@@ -12681,7 +15909,9 @@
       <c r="D38" s="52">
         <v>1.0</v>
       </c>
-      <c r="E38" s="52"/>
+      <c r="E38" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F38" s="57">
         <v>45943.0</v>
       </c>
@@ -12720,7 +15950,9 @@
       <c r="D39" s="52">
         <v>1.0</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F39" s="57">
         <v>45943.0</v>
       </c>
@@ -12747,7 +15979,9 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="52"/>
+      <c r="A40" s="52" t="s">
+        <v>349</v>
+      </c>
       <c r="B40" s="52" t="s">
         <v>22</v>
       </c>
@@ -12757,7 +15991,9 @@
       <c r="D40" s="52">
         <v>1.0</v>
       </c>
-      <c r="E40" s="52"/>
+      <c r="E40" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F40" s="57">
         <v>45943.0</v>
       </c>
@@ -12784,7 +16020,9 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="52"/>
+      <c r="A41" s="52" t="s">
+        <v>350</v>
+      </c>
       <c r="B41" s="52" t="s">
         <v>22</v>
       </c>
@@ -12794,7 +16032,9 @@
       <c r="D41" s="52">
         <v>1.0</v>
       </c>
-      <c r="E41" s="52"/>
+      <c r="E41" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F41" s="57">
         <v>45943.0</v>
       </c>
@@ -12821,7 +16061,9 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="52"/>
+      <c r="A42" s="52" t="s">
+        <v>351</v>
+      </c>
       <c r="B42" s="52" t="s">
         <v>22</v>
       </c>
@@ -12831,7 +16073,9 @@
       <c r="D42" s="52">
         <v>1.0</v>
       </c>
-      <c r="E42" s="52"/>
+      <c r="E42" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F42" s="57">
         <v>45943.0</v>
       </c>
@@ -12858,7 +16102,9 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="52"/>
+      <c r="A43" s="52" t="s">
+        <v>352</v>
+      </c>
       <c r="B43" s="52" t="s">
         <v>22</v>
       </c>
@@ -12868,7 +16114,9 @@
       <c r="D43" s="52">
         <v>1.0</v>
       </c>
-      <c r="E43" s="52"/>
+      <c r="E43" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F43" s="57">
         <v>45943.0</v>
       </c>
@@ -12895,7 +16143,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="52"/>
+      <c r="A44" s="52" t="s">
+        <v>353</v>
+      </c>
       <c r="B44" s="52" t="s">
         <v>22</v>
       </c>
@@ -12905,7 +16155,9 @@
       <c r="D44" s="52">
         <v>1.0</v>
       </c>
-      <c r="E44" s="52"/>
+      <c r="E44" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F44" s="57">
         <v>45943.0</v>
       </c>
@@ -12932,7 +16184,9 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="52"/>
+      <c r="A45" s="52" t="s">
+        <v>354</v>
+      </c>
       <c r="B45" s="52" t="s">
         <v>22</v>
       </c>
@@ -12942,7 +16196,9 @@
       <c r="D45" s="52">
         <v>1.0</v>
       </c>
-      <c r="E45" s="52"/>
+      <c r="E45" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F45" s="57">
         <v>45943.0</v>
       </c>
@@ -12969,7 +16225,9 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="52"/>
+      <c r="A46" s="52" t="s">
+        <v>261</v>
+      </c>
       <c r="B46" s="52" t="s">
         <v>22</v>
       </c>
@@ -12979,7 +16237,9 @@
       <c r="D46" s="52">
         <v>1.0</v>
       </c>
-      <c r="E46" s="52"/>
+      <c r="E46" s="52">
+        <v>4.0</v>
+      </c>
       <c r="F46" s="57">
         <v>45943.0</v>
       </c>
@@ -13005,28 +16265,684 @@
         <v>26</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F47" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F48" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F49" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F50" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F51" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F52" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F53" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="54">
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F55" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F56" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F57" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F58" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I58" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F59" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F60" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I60" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F61" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I61" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F62" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="57">
+        <v>45943.0</v>
+      </c>
+      <c r="I62" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C68" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="58" t="s">
+      <c r="F68" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="58">
+    <row r="69">
+      <c r="A69" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="58">
         <v>900.0</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C69" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F69" s="58" t="s">
         <v>320</v>
       </c>
     </row>
@@ -13208,7 +17124,7 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>22</v>
@@ -13223,13 +17139,13 @@
         <v>60.0</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>96</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>96</v>
@@ -13249,7 +17165,7 @@
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>22</v>
@@ -13264,13 +17180,13 @@
         <v>60.0</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>100</v>
@@ -13305,13 +17221,13 @@
         <v>60.0</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>122</v>
@@ -13331,7 +17247,7 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>22</v>
@@ -13346,13 +17262,13 @@
         <v>60.0</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>115</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>115</v>
@@ -13372,7 +17288,7 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>22</v>
@@ -13387,13 +17303,13 @@
         <v>60.0</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>125</v>
@@ -13413,7 +17329,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>22</v>
@@ -13428,13 +17344,13 @@
         <v>60.0</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>119</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>119</v>
@@ -13454,7 +17370,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -13469,13 +17385,13 @@
         <v>60.0</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>114</v>
@@ -13495,7 +17411,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>22</v>
@@ -13510,16 +17426,16 @@
         <v>270.0</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J15" s="74">
         <v>0.0</v>
@@ -13551,16 +17467,16 @@
         <v>5.0</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J16" s="74">
         <v>0.0</v>
@@ -13592,16 +17508,16 @@
         <v>10.0</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J17" s="74">
         <v>0.0</v>
@@ -13618,7 +17534,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>22</v>
@@ -13633,16 +17549,16 @@
         <v>15.0</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J18" s="74">
         <v>0.0</v>
@@ -13674,16 +17590,16 @@
         <v>10.0</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J19" s="74">
         <v>0.0</v>
@@ -13715,16 +17631,16 @@
         <v>20.0</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J20" s="74">
         <v>0.0</v>
@@ -13756,16 +17672,16 @@
         <v>15.0</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J21" s="74">
         <v>0.0</v>
@@ -13797,16 +17713,16 @@
         <v>15.0</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J22" s="74">
         <v>0.0</v>
@@ -13838,16 +17754,16 @@
         <v>10.0</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J23" s="74">
         <v>0.0</v>
@@ -13879,16 +17795,16 @@
         <v>10.0</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J24" s="74">
         <v>0.0</v>
@@ -13920,16 +17836,16 @@
         <v>10.0</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J25" s="74">
         <v>0.0</v>
@@ -13961,16 +17877,16 @@
         <v>10.0</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J26" s="74">
         <v>0.0</v>
@@ -14002,16 +17918,16 @@
         <v>10.0</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J27" s="74">
         <v>0.0</v>
@@ -14043,16 +17959,16 @@
         <v>10.0</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J28" s="74">
         <v>0.0</v>
@@ -14084,16 +18000,16 @@
         <v>10.0</v>
       </c>
       <c r="F29" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J29" s="74">
         <v>0.0</v>
@@ -14125,16 +18041,16 @@
         <v>10.0</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J30" s="74">
         <v>0.0</v>
@@ -14166,16 +18082,16 @@
         <v>10.0</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J31" s="74">
         <v>0.0</v>
@@ -14207,16 +18123,16 @@
         <v>10.0</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J32" s="74">
         <v>0.0</v>
@@ -14248,16 +18164,16 @@
         <v>10.0</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J33" s="74">
         <v>0.0</v>
@@ -14289,16 +18205,16 @@
         <v>10.0</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J34" s="74">
         <v>0.0</v>
@@ -14330,16 +18246,16 @@
         <v>10.0</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J35" s="74">
         <v>0.0</v>
@@ -14371,16 +18287,16 @@
         <v>10.0</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J36" s="74">
         <v>0.0</v>
@@ -14412,16 +18328,16 @@
         <v>10.0</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J37" s="74">
         <v>0.0</v>
@@ -14453,16 +18369,16 @@
         <v>10.0</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J38" s="74">
         <v>0.0</v>
@@ -14494,16 +18410,16 @@
         <v>10.0</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I39" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J39" s="74">
         <v>0.0</v>
@@ -14535,16 +18451,16 @@
         <v>10.0</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I40" s="52" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="J40" s="74">
         <v>0.0</v>
@@ -14690,13 +18606,13 @@
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I45" s="84" t="s">
         <v>47</v>
@@ -14729,13 +18645,13 @@
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G46" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I46" s="84" t="s">
         <v>47</v>
@@ -14768,13 +18684,13 @@
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G47" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I47" s="84" t="s">
         <v>47</v>
@@ -14807,13 +18723,13 @@
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G48" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I48" s="84" t="s">
         <v>47</v>
@@ -14846,13 +18762,13 @@
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G49" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I49" s="84" t="s">
         <v>47</v>
@@ -14885,13 +18801,13 @@
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G50" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I50" s="84" t="s">
         <v>47</v>
@@ -14924,13 +18840,13 @@
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G51" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I51" s="84" t="s">
         <v>47</v>
@@ -14963,13 +18879,13 @@
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G52" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I52" s="84" t="s">
         <v>47</v>
@@ -15002,13 +18918,13 @@
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I53" s="84" t="s">
         <v>47</v>
@@ -15041,13 +18957,13 @@
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G54" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I54" s="84" t="s">
         <v>47</v>
@@ -15080,13 +18996,13 @@
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I55" s="84" t="s">
         <v>47</v>
@@ -15119,13 +19035,13 @@
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G56" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I56" s="84" t="s">
         <v>47</v>
@@ -15158,13 +19074,13 @@
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G57" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I57" s="84" t="s">
         <v>47</v>
@@ -15197,13 +19113,13 @@
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G58" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I58" s="84" t="s">
         <v>47</v>
@@ -15236,13 +19152,13 @@
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G59" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I59" s="84" t="s">
         <v>47</v>
@@ -15275,13 +19191,13 @@
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G60" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I60" s="84" t="s">
         <v>47</v>
@@ -15314,13 +19230,13 @@
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G61" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I61" s="84" t="s">
         <v>47</v>
@@ -15353,13 +19269,13 @@
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G62" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I62" s="84" t="s">
         <v>47</v>
@@ -15392,13 +19308,13 @@
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G63" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I63" s="84" t="s">
         <v>47</v>
@@ -15431,13 +19347,13 @@
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G64" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I64" s="84" t="s">
         <v>47</v>
@@ -15470,13 +19386,13 @@
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G65" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I65" s="84" t="s">
         <v>47</v>
@@ -15509,13 +19425,13 @@
       </c>
       <c r="E66" s="52"/>
       <c r="F66" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G66" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I66" s="84" t="s">
         <v>47</v>
@@ -15548,13 +19464,13 @@
       </c>
       <c r="E67" s="52"/>
       <c r="F67" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G67" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I67" s="84" t="s">
         <v>47</v>
@@ -15587,13 +19503,13 @@
       </c>
       <c r="E68" s="52"/>
       <c r="F68" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G68" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I68" s="84" t="s">
         <v>47</v>
@@ -15626,13 +19542,13 @@
       </c>
       <c r="E69" s="52"/>
       <c r="F69" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G69" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I69" s="84" t="s">
         <v>47</v>
@@ -15665,13 +19581,13 @@
       </c>
       <c r="E70" s="52"/>
       <c r="F70" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G70" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I70" s="84" t="s">
         <v>47</v>
@@ -15704,13 +19620,13 @@
       </c>
       <c r="E71" s="52"/>
       <c r="F71" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G71" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I71" s="84" t="s">
         <v>47</v>
@@ -15743,13 +19659,13 @@
       </c>
       <c r="E72" s="52"/>
       <c r="F72" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G72" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H72" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I72" s="84" t="s">
         <v>47</v>
@@ -15782,13 +19698,13 @@
       </c>
       <c r="E73" s="52"/>
       <c r="F73" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G73" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I73" s="84" t="s">
         <v>47</v>
@@ -15821,13 +19737,13 @@
       </c>
       <c r="E74" s="52"/>
       <c r="F74" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G74" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I74" s="84" t="s">
         <v>47</v>
@@ -15860,13 +19776,13 @@
       </c>
       <c r="E75" s="52"/>
       <c r="F75" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G75" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I75" s="84" t="s">
         <v>47</v>
@@ -15899,13 +19815,13 @@
       </c>
       <c r="E76" s="52"/>
       <c r="F76" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G76" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H76" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I76" s="84" t="s">
         <v>47</v>
@@ -15938,13 +19854,13 @@
       </c>
       <c r="E77" s="52"/>
       <c r="F77" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G77" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H77" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I77" s="84" t="s">
         <v>47</v>
@@ -15977,13 +19893,13 @@
       </c>
       <c r="E78" s="52"/>
       <c r="F78" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G78" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I78" s="84" t="s">
         <v>47</v>
@@ -16016,13 +19932,13 @@
       </c>
       <c r="E79" s="52"/>
       <c r="F79" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G79" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H79" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I79" s="84" t="s">
         <v>47</v>
@@ -16055,13 +19971,13 @@
       </c>
       <c r="E80" s="52"/>
       <c r="F80" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G80" s="84" t="s">
         <v>47</v>
       </c>
       <c r="H80" s="52" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="I80" s="84" t="s">
         <v>47</v>
@@ -16241,13 +20157,13 @@
         <v>60.0</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G86" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="I86" s="52" t="s">
         <v>123</v>
@@ -16267,7 +20183,7 @@
     </row>
     <row r="87">
       <c r="A87" s="52" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="B87" s="65" t="s">
         <v>22</v>
@@ -16282,13 +20198,13 @@
         <v>180.0</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G87" s="52" t="s">
         <v>114</v>
       </c>
       <c r="H87" s="52" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I87" s="52" t="s">
         <v>114</v>

--- a/assets/docs/ControlAsignaciones_Grupo.xlsx
+++ b/assets/docs/ControlAsignaciones_Grupo.xlsx
@@ -15,19 +15,20 @@
     <sheet state="visible" name="Requerimiento y Planeacion" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Diseño Fase 2" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="ImplementacionPruebas" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="PostmortemF2" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="VVjppWzoWMLZFurxCYHrHZC23wAbURUMoZS+e0z7Cac="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="yBj3yA4HBh/bmD6txuHpGbRvUdagOD9tNigSawnRqJA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="439">
   <si>
     <t>CONTROL ASIGNACIONES</t>
   </si>
@@ -1145,13 +1146,16 @@
     <t>Bitacora(Individual)*</t>
   </si>
   <si>
+    <t>Log de defectos*</t>
+  </si>
+  <si>
     <t>10/27/2025</t>
   </si>
   <si>
     <t>Control Asignaciones*</t>
   </si>
   <si>
-    <t>Informe Final</t>
+    <t>Informe Final*</t>
   </si>
   <si>
     <t>10/25/2025</t>
@@ -1172,15 +1176,24 @@
     <t>Reglas de funcionamiento del equipo y compromiso colectivo</t>
   </si>
   <si>
+    <t>Plan adminConfig*</t>
+  </si>
+  <si>
     <t>10/24/2025</t>
   </si>
   <si>
+    <t>Plan de Riesgos*</t>
+  </si>
+  <si>
     <t>Full Correccion</t>
   </si>
   <si>
     <t>10/28/2025</t>
   </si>
   <si>
+    <t>20 horas y 30 minutos</t>
+  </si>
+  <si>
     <t>Plantilla detalle de caso de uso 1*</t>
   </si>
   <si>
@@ -1214,9 +1227,6 @@
     <t>Bitacora Individual*</t>
   </si>
   <si>
-    <t>Log de defectos*</t>
-  </si>
-  <si>
     <t>Control de Asignaciones*</t>
   </si>
   <si>
@@ -1256,6 +1266,9 @@
     <t>Maestro de documento</t>
   </si>
   <si>
+    <t>13horas y 10minutos</t>
+  </si>
+  <si>
     <t>ControlAsignaciones*</t>
   </si>
   <si>
@@ -1317,6 +1330,21 @@
   </si>
   <si>
     <t>Correccion</t>
+  </si>
+  <si>
+    <t>15horas</t>
+  </si>
+  <si>
+    <t>Documento Final Postmortem F2*</t>
+  </si>
+  <si>
+    <t>Script Postmortem Fase2*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propuesta de mejora </t>
+  </si>
+  <si>
+    <t>18 horas</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1910,6 +1938,9 @@
     <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="29" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,7 +1967,7 @@
     <xdr:ext cx="5772150" cy="3467100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1958,15 +1989,135 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3848100" cy="2314575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image8.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4562475" cy="2752725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image9.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5153025" cy="3105150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image10.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3638550" cy="2190750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image12.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,7 +2165,7 @@
     <xdr:ext cx="6238875" cy="3743325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2047,7 +2198,7 @@
     <xdr:ext cx="5676900" cy="3409950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2150,7 +2301,7 @@
     <xdr:ext cx="4714875" cy="2828925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2172,7 +2323,36 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4733925" cy="2847975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4171,7 +4351,7 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>22</v>
@@ -4212,7 +4392,7 @@
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>22</v>
@@ -4253,7 +4433,7 @@
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>22</v>
@@ -4294,7 +4474,7 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>22</v>
@@ -4312,13 +4492,13 @@
         <v>45967.0</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H11" s="81">
         <v>45967.0</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J11" s="74">
         <v>0.0</v>
@@ -4335,7 +4515,7 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>22</v>
@@ -4376,7 +4556,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>22</v>
@@ -4417,7 +4597,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -4435,13 +4615,13 @@
         <v>45967.0</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H14" s="80">
         <v>45967.0</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J14" s="74">
         <v>0.0</v>
@@ -4458,7 +4638,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>22</v>
@@ -4499,7 +4679,7 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>22</v>
@@ -4540,7 +4720,7 @@
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>22</v>
@@ -4558,13 +4738,13 @@
         <v>45968.0</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H17" s="80">
         <v>45968.0</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J17" s="74">
         <v>0.0</v>
@@ -4581,7 +4761,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>22</v>
@@ -4622,7 +4802,7 @@
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>22</v>
@@ -4663,7 +4843,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>22</v>
@@ -4704,7 +4884,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>22</v>
@@ -4745,7 +4925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>22</v>
@@ -4786,7 +4966,7 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>22</v>
@@ -4886,13 +5066,13 @@
         <v>45968.0</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H25" s="81">
         <v>45968.0</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J25" s="74">
         <v>0.0</v>
@@ -4909,7 +5089,7 @@
     </row>
     <row r="26">
       <c r="A26" s="52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>22</v>
@@ -4927,13 +5107,13 @@
         <v>45967.0</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H26" s="81">
         <v>45967.0</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J26" s="74">
         <v>0.0</v>
@@ -4955,6 +5135,9 @@
       <c r="C28" s="58" t="s">
         <v>103</v>
       </c>
+      <c r="F28" s="58" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="58" t="s">
@@ -4964,7 +5147,13 @@
         <v>1250.0</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="58">
+        <v>780.0</v>
       </c>
     </row>
   </sheetData>
@@ -4994,6 +5183,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="28.25"/>
     <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5147,8 +5337,8 @@
       <c r="A8" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>403</v>
+      <c r="B8" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>105</v>
@@ -5159,13 +5349,13 @@
       <c r="E8" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="87">
         <v>45972.0</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="87">
         <v>45972.0</v>
       </c>
       <c r="I8" s="34" t="s">
@@ -5188,8 +5378,8 @@
       <c r="A9" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>403</v>
+      <c r="B9" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>105</v>
@@ -5197,16 +5387,16 @@
       <c r="D9" s="34">
         <v>1.0</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="87">
         <v>45972.0</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="87">
         <v>45972.0</v>
       </c>
       <c r="I9" s="34" t="s">
@@ -5229,8 +5419,8 @@
       <c r="A10" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>403</v>
+      <c r="B10" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>105</v>
@@ -5238,16 +5428,16 @@
       <c r="D10" s="34">
         <v>1.0</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="87">
         <v>45972.0</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="87">
         <v>45972.0</v>
       </c>
       <c r="I10" s="34" t="s">
@@ -5270,8 +5460,8 @@
       <c r="A11" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>403</v>
+      <c r="B11" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>105</v>
@@ -5282,13 +5472,13 @@
       <c r="E11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="87">
         <v>45971.0</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="87">
         <v>45971.0</v>
       </c>
       <c r="I11" s="34" t="s">
@@ -5311,8 +5501,8 @@
       <c r="A12" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>403</v>
+      <c r="B12" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>105</v>
@@ -5323,13 +5513,13 @@
       <c r="E12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="87">
         <v>45972.0</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="87">
         <v>45972.0</v>
       </c>
       <c r="I12" s="34" t="s">
@@ -5352,8 +5542,8 @@
       <c r="A13" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="85" t="s">
-        <v>403</v>
+      <c r="B13" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>105</v>
@@ -5364,13 +5554,13 @@
       <c r="E13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="87">
         <v>45972.0</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="87">
         <v>45972.0</v>
       </c>
       <c r="I13" s="34" t="s">
@@ -5393,8 +5583,8 @@
       <c r="A14" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>403</v>
+      <c r="B14" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>105</v>
@@ -5405,13 +5595,13 @@
       <c r="E14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="87">
         <v>45972.0</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="87">
         <v>45972.0</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -5434,8 +5624,8 @@
       <c r="A15" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>403</v>
+      <c r="B15" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>105</v>
@@ -5446,13 +5636,13 @@
       <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="87">
         <v>45972.0</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="87">
         <v>45972.0</v>
       </c>
       <c r="I15" s="34" t="s">
@@ -5475,8 +5665,8 @@
       <c r="A16" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>403</v>
+      <c r="B16" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>105</v>
@@ -5487,13 +5677,13 @@
       <c r="E16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="86">
+      <c r="F16" s="87">
         <v>45972.0</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="87">
         <v>45972.0</v>
       </c>
       <c r="I16" s="34" t="s">
@@ -5516,8 +5706,8 @@
       <c r="A17" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>403</v>
+      <c r="B17" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>105</v>
@@ -5528,13 +5718,13 @@
       <c r="E17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="87">
         <v>45972.0</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="87">
         <v>45972.0</v>
       </c>
       <c r="I17" s="34" t="s">
@@ -5557,8 +5747,8 @@
       <c r="A18" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>403</v>
+      <c r="B18" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>105</v>
@@ -5569,16 +5759,16 @@
       <c r="E18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="87">
         <v>45972.0</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="87">
         <v>45972.0</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="86" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="34">
@@ -5595,11 +5785,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>403</v>
+      <c r="A19" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>105</v>
@@ -5607,16 +5797,16 @@
       <c r="D19" s="34">
         <v>1.0</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="87">
         <v>45971.0</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="87">
         <v>45971.0</v>
       </c>
       <c r="I19" s="34" t="s">
@@ -5636,11 +5826,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="85" t="s">
-        <v>403</v>
+      <c r="B20" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>105</v>
@@ -5651,13 +5841,13 @@
       <c r="E20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="87">
         <v>45971.0</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="87">
         <v>45971.0</v>
       </c>
       <c r="I20" s="34" t="s">
@@ -5710,11 +5900,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>403</v>
+      <c r="A22" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>105</v>
@@ -5725,13 +5915,13 @@
       <c r="E22" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="87">
         <v>45972.0</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="87">
         <v>45972.0</v>
       </c>
       <c r="I22" s="34" t="s">
@@ -5751,11 +5941,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="86" t="s">
         <v>406</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>403</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>105</v>
@@ -5766,13 +5956,13 @@
       <c r="E23" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="87">
         <v>45972.0</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="87">
         <v>45972.0</v>
       </c>
       <c r="I23" s="34" t="s">
@@ -5792,11 +5982,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="85" t="s">
-        <v>407</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>403</v>
+      <c r="A24" s="86" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>105</v>
@@ -5807,13 +5997,13 @@
       <c r="E24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="87">
         <v>45972.0</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="87">
         <v>45972.0</v>
       </c>
       <c r="I24" s="34" t="s">
@@ -5836,8 +6026,8 @@
       <c r="A25" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>403</v>
+      <c r="B25" s="86" t="s">
+        <v>406</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>105</v>
@@ -5848,13 +6038,13 @@
       <c r="E25" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="87">
         <v>45972.0</v>
       </c>
       <c r="G25" s="64">
         <v>0.4375</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="87">
         <v>45972.0</v>
       </c>
       <c r="I25" s="34" t="s">
@@ -5877,10 +6067,10 @@
       <c r="A26" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" s="85" t="s">
+      <c r="B26" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="86" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="34">
@@ -5889,13 +6079,13 @@
       <c r="E26" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="87">
         <v>45973.0</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="87">
         <v>45973.0</v>
       </c>
       <c r="I26" s="34" t="s">
@@ -5915,44 +6105,72 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="85" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="85" t="s">
+      <c r="A27" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="86">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="86">
+      <c r="F27" s="87">
         <v>45973.0</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="87">
         <v>45973.0</v>
       </c>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="85" t="s">
+      <c r="J27" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="86" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="58">
+        <v>790.0</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="58">
+        <v>660.0</v>
       </c>
     </row>
   </sheetData>
@@ -6133,7 +6351,7 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>22</v>
@@ -6148,13 +6366,13 @@
         <v>60.0</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>119</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>119</v>
@@ -6189,13 +6407,13 @@
         <v>60.0</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>96</v>
@@ -6230,13 +6448,13 @@
         <v>60.0</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>115</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>115</v>
@@ -6271,13 +6489,13 @@
         <v>60.0</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>125</v>
@@ -6312,13 +6530,13 @@
         <v>120.0</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>182</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>182</v>
@@ -6338,7 +6556,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>22</v>
@@ -6353,13 +6571,13 @@
         <v>120.0</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>96</v>
@@ -6379,7 +6597,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -6394,13 +6612,13 @@
         <v>10.0</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>96</v>
@@ -6420,7 +6638,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>22</v>
@@ -6435,13 +6653,13 @@
         <v>10.0</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>96</v>
@@ -6461,7 +6679,7 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>22</v>
@@ -6476,13 +6694,13 @@
         <v>30.0</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>96</v>
@@ -6502,7 +6720,7 @@
     </row>
     <row r="17">
       <c r="A17" s="52" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>22</v>
@@ -6517,13 +6735,13 @@
         <v>20.0</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>96</v>
@@ -6543,7 +6761,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>22</v>
@@ -6558,13 +6776,13 @@
         <v>20.0</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>96</v>
@@ -6584,7 +6802,7 @@
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>22</v>
@@ -6599,13 +6817,13 @@
         <v>10.0</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>96</v>
@@ -6625,7 +6843,7 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>22</v>
@@ -6640,13 +6858,13 @@
         <v>10.0</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>96</v>
@@ -6666,7 +6884,7 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>22</v>
@@ -6681,13 +6899,13 @@
         <v>10.0</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>96</v>
@@ -6707,7 +6925,7 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>22</v>
@@ -6722,13 +6940,13 @@
         <v>120.0</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G22" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I22" s="52" t="s">
         <v>122</v>
@@ -6763,13 +6981,13 @@
         <v>30.0</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G23" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I23" s="52" t="s">
         <v>122</v>
@@ -6804,13 +7022,13 @@
         <v>30.0</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G24" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I24" s="52" t="s">
         <v>122</v>
@@ -6845,13 +7063,13 @@
         <v>40.0</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G25" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>122</v>
@@ -6886,13 +7104,13 @@
         <v>30.0</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G26" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I26" s="52" t="s">
         <v>122</v>
@@ -6927,13 +7145,13 @@
         <v>30.0</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G27" s="52" t="s">
         <v>122</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>122</v>
@@ -6953,7 +7171,7 @@
     </row>
     <row r="28">
       <c r="A28" s="52" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>22</v>
@@ -6968,13 +7186,13 @@
         <v>150.0</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G28" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I28" s="52" t="s">
         <v>244</v>
@@ -7009,13 +7227,13 @@
         <v>30.0</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>244</v>
@@ -7035,7 +7253,7 @@
     </row>
     <row r="30">
       <c r="A30" s="52" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>22</v>
@@ -7050,13 +7268,13 @@
         <v>10.0</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G30" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I30" s="52" t="s">
         <v>244</v>
@@ -7091,13 +7309,13 @@
         <v>10.0</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G31" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I31" s="52" t="s">
         <v>244</v>
@@ -7117,7 +7335,7 @@
     </row>
     <row r="32">
       <c r="A32" s="52" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>22</v>
@@ -7132,13 +7350,13 @@
         <v>10.0</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G32" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I32" s="52" t="s">
         <v>244</v>
@@ -7173,13 +7391,13 @@
         <v>40.0</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G33" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I33" s="52" t="s">
         <v>244</v>
@@ -7214,13 +7432,13 @@
         <v>10.0</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G34" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I34" s="52" t="s">
         <v>244</v>
@@ -7255,13 +7473,13 @@
         <v>10.0</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G35" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I35" s="52" t="s">
         <v>244</v>
@@ -7296,13 +7514,13 @@
         <v>10.0</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G36" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I36" s="52" t="s">
         <v>244</v>
@@ -7337,13 +7555,13 @@
         <v>10.0</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G37" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I37" s="52" t="s">
         <v>244</v>
@@ -7363,7 +7581,7 @@
     </row>
     <row r="38">
       <c r="A38" s="52" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>22</v>
@@ -7378,13 +7596,13 @@
         <v>40.0</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G38" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I38" s="52" t="s">
         <v>244</v>
@@ -7419,13 +7637,13 @@
         <v>10.0</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G39" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H39" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I39" s="52" t="s">
         <v>244</v>
@@ -7460,13 +7678,13 @@
         <v>10.0</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G40" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I40" s="52" t="s">
         <v>244</v>
@@ -7501,13 +7719,13 @@
         <v>10.0</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G41" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I41" s="52" t="s">
         <v>244</v>
@@ -7542,13 +7760,13 @@
         <v>5.0</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G42" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I42" s="52" t="s">
         <v>244</v>
@@ -7583,13 +7801,13 @@
         <v>5.0</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G43" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I43" s="52" t="s">
         <v>244</v>
@@ -7609,7 +7827,7 @@
     </row>
     <row r="44">
       <c r="A44" s="52" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B44" s="65" t="s">
         <v>22</v>
@@ -7624,13 +7842,13 @@
         <v>40.0</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G44" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I44" s="52" t="s">
         <v>244</v>
@@ -7665,13 +7883,13 @@
         <v>10.0</v>
       </c>
       <c r="F45" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I45" s="52" t="s">
         <v>244</v>
@@ -7706,13 +7924,13 @@
         <v>10.0</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G46" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H46" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I46" s="52" t="s">
         <v>244</v>
@@ -7747,13 +7965,13 @@
         <v>10.0</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G47" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I47" s="52" t="s">
         <v>244</v>
@@ -7788,13 +8006,13 @@
         <v>5.0</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G48" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H48" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I48" s="52" t="s">
         <v>244</v>
@@ -7829,13 +8047,13 @@
         <v>5.0</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G49" s="52" t="s">
         <v>244</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I49" s="52" t="s">
         <v>244</v>
@@ -7855,7 +8073,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B50" s="65" t="s">
         <v>22</v>
@@ -7870,13 +8088,13 @@
         <v>60.0</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G50" s="52" t="s">
         <v>133</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I50" s="52" t="s">
         <v>133</v>
@@ -7896,7 +8114,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>22</v>
@@ -7911,13 +8129,13 @@
         <v>60.0</v>
       </c>
       <c r="F51" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G51" s="52" t="s">
         <v>268</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I51" s="52" t="s">
         <v>268</v>
@@ -7952,13 +8170,13 @@
         <v>60.0</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G52" s="52" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I52" s="52" t="s">
         <v>44</v>
@@ -7978,7 +8196,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>22</v>
@@ -7993,16 +8211,16 @@
         <v>120.0</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I53" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J53" s="74">
         <v>0.0</v>
@@ -8015,6 +8233,2487 @@
       </c>
       <c r="M53" s="76" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="58">
+        <v>960.0</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.38"/>
+    <col customWidth="1" min="13" max="13" width="29.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>60.0</v>
+      </c>
+      <c r="F9" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="66">
+        <v>60.0</v>
+      </c>
+      <c r="F10" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F11" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="80">
+        <v>45981.0</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="52">
+        <v>180.0</v>
+      </c>
+      <c r="F13" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="52">
+        <v>120.0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="57">
+        <v>45984.0</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>45982.0</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="57">
+        <v>45982.0</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>180.0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F26" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F27" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F29" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F30" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F31" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F32" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F33" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F34" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F35" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F36" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F37" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F38" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F39" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F40" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F41" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F42" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F43" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F44" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I44" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F46" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F47" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F48" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F49" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F50" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F51" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F52" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F53" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I53" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F55" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F56" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F57" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F58" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I58" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F59" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F60" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I60" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F61" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="I61" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="F62" s="57">
+        <v>45983.0</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="57">
+        <v>45952.0</v>
+      </c>
+      <c r="I62" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="58">
+        <v>900.0</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -16972,6 +19671,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="41.75"/>
+    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="13" max="13" width="26.88"/>
   </cols>
   <sheetData>
@@ -17206,7 +19907,7 @@
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>22</v>
@@ -17221,13 +19922,13 @@
         <v>60.0</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>122</v>
@@ -17247,7 +19948,7 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>22</v>
@@ -17288,7 +19989,7 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>22</v>
@@ -17303,13 +20004,13 @@
         <v>60.0</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>125</v>
@@ -17329,7 +20030,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>22</v>
@@ -17370,7 +20071,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>22</v>
@@ -17385,13 +20086,13 @@
         <v>60.0</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>114</v>
@@ -17411,7 +20112,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>22</v>
@@ -17429,13 +20130,13 @@
         <v>370</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J15" s="74">
         <v>0.0</v>
@@ -17470,13 +20171,13 @@
         <v>370</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H16" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J16" s="74">
         <v>0.0</v>
@@ -17511,13 +20212,13 @@
         <v>370</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H17" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J17" s="74">
         <v>0.0</v>
@@ -17534,7 +20235,7 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>22</v>
@@ -17552,13 +20253,13 @@
         <v>370</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H18" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J18" s="74">
         <v>0.0</v>
@@ -17593,13 +20294,13 @@
         <v>370</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J19" s="74">
         <v>0.0</v>
@@ -17634,13 +20335,13 @@
         <v>370</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H20" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J20" s="74">
         <v>0.0</v>
@@ -17675,13 +20376,13 @@
         <v>370</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J21" s="74">
         <v>0.0</v>
@@ -17716,13 +20417,13 @@
         <v>370</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J22" s="74">
         <v>0.0</v>
@@ -17757,13 +20458,13 @@
         <v>370</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H23" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J23" s="74">
         <v>0.0</v>
@@ -17798,13 +20499,13 @@
         <v>370</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H24" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J24" s="74">
         <v>0.0</v>
@@ -17839,13 +20540,13 @@
         <v>370</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H25" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I25" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J25" s="74">
         <v>0.0</v>
@@ -17880,13 +20581,13 @@
         <v>370</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H26" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J26" s="74">
         <v>0.0</v>
@@ -17921,13 +20622,13 @@
         <v>370</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H27" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I27" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J27" s="74">
         <v>0.0</v>
@@ -17962,13 +20663,13 @@
         <v>370</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H28" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J28" s="74">
         <v>0.0</v>
@@ -18003,13 +20704,13 @@
         <v>370</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H29" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J29" s="74">
         <v>0.0</v>
@@ -18044,13 +20745,13 @@
         <v>370</v>
       </c>
       <c r="G30" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H30" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J30" s="74">
         <v>0.0</v>
@@ -18085,13 +20786,13 @@
         <v>370</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H31" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J31" s="74">
         <v>0.0</v>
@@ -18126,13 +20827,13 @@
         <v>370</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H32" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J32" s="74">
         <v>0.0</v>
@@ -18167,13 +20868,13 @@
         <v>370</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H33" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J33" s="74">
         <v>0.0</v>
@@ -18208,13 +20909,13 @@
         <v>370</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H34" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J34" s="74">
         <v>0.0</v>
@@ -18249,13 +20950,13 @@
         <v>370</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H35" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J35" s="74">
         <v>0.0</v>
@@ -18290,13 +20991,13 @@
         <v>370</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H36" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J36" s="74">
         <v>0.0</v>
@@ -18331,13 +21032,13 @@
         <v>370</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H37" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J37" s="74">
         <v>0.0</v>
@@ -18372,13 +21073,13 @@
         <v>370</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H38" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J38" s="74">
         <v>0.0</v>
@@ -18413,13 +21114,13 @@
         <v>370</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H39" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I39" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J39" s="74">
         <v>0.0</v>
@@ -18454,13 +21155,13 @@
         <v>370</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H40" s="52" t="s">
         <v>370</v>
       </c>
       <c r="I40" s="52" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J40" s="74">
         <v>0.0</v>
@@ -18476,7 +21177,9 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="52"/>
+      <c r="A41" s="52" t="s">
+        <v>382</v>
+      </c>
       <c r="B41" s="65" t="s">
         <v>22</v>
       </c>
@@ -18486,11 +21189,21 @@
       <c r="D41" s="66">
         <v>1.0</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="E41" s="52">
+        <v>120.0</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I41" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="J41" s="74">
         <v>0.0</v>
       </c>
@@ -18505,7 +21218,9 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="52"/>
+      <c r="A42" s="52" t="s">
+        <v>137</v>
+      </c>
       <c r="B42" s="65" t="s">
         <v>22</v>
       </c>
@@ -18515,11 +21230,21 @@
       <c r="D42" s="66">
         <v>1.0</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="E42" s="52">
+        <v>6.0</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I42" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="J42" s="74">
         <v>0.0</v>
       </c>
@@ -18534,7 +21259,9 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="52"/>
+      <c r="A43" s="52" t="s">
+        <v>138</v>
+      </c>
       <c r="B43" s="65" t="s">
         <v>22</v>
       </c>
@@ -18544,11 +21271,21 @@
       <c r="D43" s="66">
         <v>1.0</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="52">
+        <v>6.0</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I43" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="J43" s="74">
         <v>0.0</v>
       </c>
@@ -18563,7 +21300,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="52"/>
+      <c r="A44" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="B44" s="65" t="s">
         <v>22</v>
       </c>
@@ -18573,11 +21312,21 @@
       <c r="D44" s="66">
         <v>1.0</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="52">
+        <v>6.0</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" s="84" t="s">
+        <v>47</v>
+      </c>
       <c r="J44" s="74">
         <v>0.0</v>
       </c>
@@ -18592,8 +21341,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="37" t="s">
-        <v>134</v>
+      <c r="A45" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="B45" s="65" t="s">
         <v>22</v>
@@ -18604,15 +21353,17 @@
       <c r="D45" s="66">
         <v>1.0</v>
       </c>
-      <c r="E45" s="52"/>
+      <c r="E45" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F45" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I45" s="84" t="s">
         <v>47</v>
@@ -18632,7 +21383,7 @@
     </row>
     <row r="46">
       <c r="A46" s="52" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B46" s="65" t="s">
         <v>22</v>
@@ -18643,15 +21394,17 @@
       <c r="D46" s="66">
         <v>1.0</v>
       </c>
-      <c r="E46" s="52"/>
+      <c r="E46" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F46" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G46" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I46" s="84" t="s">
         <v>47</v>
@@ -18671,7 +21424,7 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B47" s="65" t="s">
         <v>22</v>
@@ -18682,15 +21435,17 @@
       <c r="D47" s="66">
         <v>1.0</v>
       </c>
-      <c r="E47" s="52"/>
+      <c r="E47" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F47" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G47" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I47" s="84" t="s">
         <v>47</v>
@@ -18710,7 +21465,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B48" s="65" t="s">
         <v>22</v>
@@ -18721,15 +21476,17 @@
       <c r="D48" s="66">
         <v>1.0</v>
       </c>
-      <c r="E48" s="52"/>
+      <c r="E48" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F48" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G48" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I48" s="84" t="s">
         <v>47</v>
@@ -18749,7 +21506,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B49" s="65" t="s">
         <v>22</v>
@@ -18760,15 +21517,17 @@
       <c r="D49" s="66">
         <v>1.0</v>
       </c>
-      <c r="E49" s="52"/>
+      <c r="E49" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F49" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G49" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I49" s="84" t="s">
         <v>47</v>
@@ -18788,7 +21547,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B50" s="65" t="s">
         <v>22</v>
@@ -18799,15 +21558,17 @@
       <c r="D50" s="66">
         <v>1.0</v>
       </c>
-      <c r="E50" s="52"/>
+      <c r="E50" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F50" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G50" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I50" s="84" t="s">
         <v>47</v>
@@ -18827,7 +21588,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B51" s="65" t="s">
         <v>22</v>
@@ -18838,15 +21599,17 @@
       <c r="D51" s="66">
         <v>1.0</v>
       </c>
-      <c r="E51" s="52"/>
+      <c r="E51" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F51" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G51" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I51" s="84" t="s">
         <v>47</v>
@@ -18866,7 +21629,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B52" s="65" t="s">
         <v>22</v>
@@ -18877,15 +21640,17 @@
       <c r="D52" s="66">
         <v>1.0</v>
       </c>
-      <c r="E52" s="52"/>
+      <c r="E52" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F52" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G52" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I52" s="84" t="s">
         <v>47</v>
@@ -18905,7 +21670,7 @@
     </row>
     <row r="53">
       <c r="A53" s="52" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B53" s="65" t="s">
         <v>22</v>
@@ -18916,15 +21681,17 @@
       <c r="D53" s="66">
         <v>1.0</v>
       </c>
-      <c r="E53" s="52"/>
+      <c r="E53" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F53" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G53" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I53" s="84" t="s">
         <v>47</v>
@@ -18944,7 +21711,7 @@
     </row>
     <row r="54">
       <c r="A54" s="52" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B54" s="65" t="s">
         <v>22</v>
@@ -18955,15 +21722,17 @@
       <c r="D54" s="66">
         <v>1.0</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F54" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G54" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I54" s="84" t="s">
         <v>47</v>
@@ -18983,7 +21752,7 @@
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B55" s="65" t="s">
         <v>22</v>
@@ -18994,15 +21763,17 @@
       <c r="D55" s="66">
         <v>1.0</v>
       </c>
-      <c r="E55" s="52"/>
+      <c r="E55" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F55" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G55" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H55" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I55" s="84" t="s">
         <v>47</v>
@@ -19022,7 +21793,7 @@
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B56" s="65" t="s">
         <v>22</v>
@@ -19033,15 +21804,17 @@
       <c r="D56" s="66">
         <v>1.0</v>
       </c>
-      <c r="E56" s="52"/>
+      <c r="E56" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F56" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G56" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I56" s="84" t="s">
         <v>47</v>
@@ -19061,7 +21834,7 @@
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B57" s="65" t="s">
         <v>22</v>
@@ -19072,15 +21845,17 @@
       <c r="D57" s="66">
         <v>1.0</v>
       </c>
-      <c r="E57" s="52"/>
+      <c r="E57" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F57" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G57" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I57" s="84" t="s">
         <v>47</v>
@@ -19100,7 +21875,7 @@
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>22</v>
@@ -19111,15 +21886,17 @@
       <c r="D58" s="66">
         <v>1.0</v>
       </c>
-      <c r="E58" s="52"/>
+      <c r="E58" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F58" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G58" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I58" s="84" t="s">
         <v>47</v>
@@ -19139,7 +21916,7 @@
     </row>
     <row r="59">
       <c r="A59" s="52" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>22</v>
@@ -19150,15 +21927,17 @@
       <c r="D59" s="66">
         <v>1.0</v>
       </c>
-      <c r="E59" s="52"/>
+      <c r="E59" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F59" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G59" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I59" s="84" t="s">
         <v>47</v>
@@ -19178,7 +21957,7 @@
     </row>
     <row r="60">
       <c r="A60" s="52" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B60" s="65" t="s">
         <v>22</v>
@@ -19189,15 +21968,17 @@
       <c r="D60" s="66">
         <v>1.0</v>
       </c>
-      <c r="E60" s="52"/>
+      <c r="E60" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F60" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G60" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I60" s="84" t="s">
         <v>47</v>
@@ -19217,7 +21998,7 @@
     </row>
     <row r="61">
       <c r="A61" s="52" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B61" s="65" t="s">
         <v>22</v>
@@ -19228,15 +22009,17 @@
       <c r="D61" s="66">
         <v>1.0</v>
       </c>
-      <c r="E61" s="52"/>
+      <c r="E61" s="52">
+        <v>6.0</v>
+      </c>
       <c r="F61" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G61" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I61" s="84" t="s">
         <v>47</v>
@@ -19256,7 +22039,7 @@
     </row>
     <row r="62">
       <c r="A62" s="52" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="B62" s="65" t="s">
         <v>22</v>
@@ -19267,15 +22050,17 @@
       <c r="D62" s="66">
         <v>1.0</v>
       </c>
-      <c r="E62" s="52"/>
+      <c r="E62" s="52">
+        <v>180.0</v>
+      </c>
       <c r="F62" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G62" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I62" s="84" t="s">
         <v>47</v>
@@ -19295,7 +22080,7 @@
     </row>
     <row r="63">
       <c r="A63" s="52" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B63" s="65" t="s">
         <v>22</v>
@@ -19306,15 +22091,17 @@
       <c r="D63" s="66">
         <v>1.0</v>
       </c>
-      <c r="E63" s="52"/>
+      <c r="E63" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F63" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G63" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H63" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I63" s="84" t="s">
         <v>47</v>
@@ -19334,7 +22121,7 @@
     </row>
     <row r="64">
       <c r="A64" s="52" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B64" s="65" t="s">
         <v>22</v>
@@ -19345,15 +22132,17 @@
       <c r="D64" s="66">
         <v>1.0</v>
       </c>
-      <c r="E64" s="52"/>
+      <c r="E64" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F64" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G64" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H64" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I64" s="84" t="s">
         <v>47</v>
@@ -19373,7 +22162,7 @@
     </row>
     <row r="65">
       <c r="A65" s="52" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B65" s="65" t="s">
         <v>22</v>
@@ -19384,15 +22173,17 @@
       <c r="D65" s="66">
         <v>1.0</v>
       </c>
-      <c r="E65" s="52"/>
+      <c r="E65" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F65" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G65" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I65" s="84" t="s">
         <v>47</v>
@@ -19411,8 +22202,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="37" t="s">
-        <v>178</v>
+      <c r="A66" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="B66" s="65" t="s">
         <v>22</v>
@@ -19423,15 +22214,17 @@
       <c r="D66" s="66">
         <v>1.0</v>
       </c>
-      <c r="E66" s="52"/>
+      <c r="E66" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F66" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G66" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I66" s="84" t="s">
         <v>47</v>
@@ -19451,7 +22244,7 @@
     </row>
     <row r="67">
       <c r="A67" s="52" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B67" s="65" t="s">
         <v>22</v>
@@ -19462,15 +22255,17 @@
       <c r="D67" s="66">
         <v>1.0</v>
       </c>
-      <c r="E67" s="52"/>
+      <c r="E67" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F67" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G67" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I67" s="84" t="s">
         <v>47</v>
@@ -19490,7 +22285,7 @@
     </row>
     <row r="68">
       <c r="A68" s="52" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>22</v>
@@ -19501,15 +22296,17 @@
       <c r="D68" s="66">
         <v>1.0</v>
       </c>
-      <c r="E68" s="52"/>
+      <c r="E68" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F68" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G68" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I68" s="84" t="s">
         <v>47</v>
@@ -19529,7 +22326,7 @@
     </row>
     <row r="69">
       <c r="A69" s="52" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B69" s="65" t="s">
         <v>22</v>
@@ -19540,15 +22337,17 @@
       <c r="D69" s="66">
         <v>1.0</v>
       </c>
-      <c r="E69" s="52"/>
+      <c r="E69" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F69" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G69" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I69" s="84" t="s">
         <v>47</v>
@@ -19568,7 +22367,7 @@
     </row>
     <row r="70">
       <c r="A70" s="52" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B70" s="65" t="s">
         <v>22</v>
@@ -19579,15 +22378,17 @@
       <c r="D70" s="66">
         <v>1.0</v>
       </c>
-      <c r="E70" s="52"/>
+      <c r="E70" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F70" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G70" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I70" s="84" t="s">
         <v>47</v>
@@ -19607,7 +22408,7 @@
     </row>
     <row r="71">
       <c r="A71" s="52" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B71" s="65" t="s">
         <v>22</v>
@@ -19618,15 +22419,17 @@
       <c r="D71" s="66">
         <v>1.0</v>
       </c>
-      <c r="E71" s="52"/>
+      <c r="E71" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F71" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G71" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I71" s="84" t="s">
         <v>47</v>
@@ -19646,7 +22449,7 @@
     </row>
     <row r="72">
       <c r="A72" s="52" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B72" s="65" t="s">
         <v>22</v>
@@ -19657,15 +22460,17 @@
       <c r="D72" s="66">
         <v>1.0</v>
       </c>
-      <c r="E72" s="52"/>
+      <c r="E72" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F72" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G72" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H72" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I72" s="84" t="s">
         <v>47</v>
@@ -19685,7 +22490,7 @@
     </row>
     <row r="73">
       <c r="A73" s="52" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B73" s="65" t="s">
         <v>22</v>
@@ -19696,15 +22501,17 @@
       <c r="D73" s="66">
         <v>1.0</v>
       </c>
-      <c r="E73" s="52"/>
+      <c r="E73" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F73" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G73" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I73" s="84" t="s">
         <v>47</v>
@@ -19724,7 +22531,7 @@
     </row>
     <row r="74">
       <c r="A74" s="52" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B74" s="65" t="s">
         <v>22</v>
@@ -19735,15 +22542,17 @@
       <c r="D74" s="66">
         <v>1.0</v>
       </c>
-      <c r="E74" s="52"/>
+      <c r="E74" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F74" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G74" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I74" s="84" t="s">
         <v>47</v>
@@ -19763,7 +22572,7 @@
     </row>
     <row r="75">
       <c r="A75" s="52" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B75" s="65" t="s">
         <v>22</v>
@@ -19774,15 +22583,17 @@
       <c r="D75" s="66">
         <v>1.0</v>
       </c>
-      <c r="E75" s="52"/>
+      <c r="E75" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F75" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G75" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I75" s="84" t="s">
         <v>47</v>
@@ -19802,7 +22613,7 @@
     </row>
     <row r="76">
       <c r="A76" s="52" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B76" s="65" t="s">
         <v>22</v>
@@ -19813,15 +22624,17 @@
       <c r="D76" s="66">
         <v>1.0</v>
       </c>
-      <c r="E76" s="52"/>
+      <c r="E76" s="52">
+        <v>12.0</v>
+      </c>
       <c r="F76" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="G76" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G76" s="84" t="s">
         <v>47</v>
       </c>
       <c r="H76" s="52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I76" s="84" t="s">
         <v>47</v>
@@ -19841,7 +22654,7 @@
     </row>
     <row r="77">
       <c r="A77" s="52" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="B77" s="65" t="s">
         <v>22</v>
@@ -19852,18 +22665,20 @@
       <c r="D77" s="66">
         <v>1.0</v>
       </c>
-      <c r="E77" s="52"/>
+      <c r="E77" s="52">
+        <v>60.0</v>
+      </c>
       <c r="F77" s="52" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G77" s="52" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="H77" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="I77" s="84" t="s">
-        <v>47</v>
+        <v>373</v>
+      </c>
+      <c r="I77" s="52" t="s">
+        <v>123</v>
       </c>
       <c r="J77" s="74">
         <v>0.0</v>
@@ -19880,7 +22695,7 @@
     </row>
     <row r="78">
       <c r="A78" s="52" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="B78" s="65" t="s">
         <v>22</v>
@@ -19891,18 +22706,20 @@
       <c r="D78" s="66">
         <v>1.0</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="52">
+        <v>180.0</v>
+      </c>
       <c r="F78" s="52" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G78" s="52" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="H78" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="I78" s="84" t="s">
-        <v>47</v>
+        <v>386</v>
+      </c>
+      <c r="I78" s="52" t="s">
+        <v>114</v>
       </c>
       <c r="J78" s="74">
         <v>0.0</v>
@@ -19917,309 +22734,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="G79" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="I79" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="J79" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L79" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M79" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="80">
-      <c r="A80" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="G80" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="I80" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K80" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L80" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M80" s="76" t="s">
-        <v>26</v>
+      <c r="B80" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="52"/>
-      <c r="B81" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K81" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L81" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M81" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="52"/>
-      <c r="B82" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K82" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L82" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M82" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="52"/>
-      <c r="B83" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K83" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L83" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M83" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="52"/>
-      <c r="B84" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K84" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L84" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M84" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="52"/>
-      <c r="B85" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D85" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K85" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L85" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M85" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E86" s="52">
-        <v>60.0</v>
-      </c>
-      <c r="F86" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="G86" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="H86" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="I86" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="J86" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K86" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L86" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M86" s="76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="B87" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E87" s="52">
-        <v>180.0</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="G87" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H87" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="I87" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="J87" s="74">
-        <v>0.0</v>
-      </c>
-      <c r="K87" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="L87" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="M87" s="76" t="s">
-        <v>26</v>
+      <c r="A81" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="85">
+        <v>1230.0</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="58">
+        <v>900.0</v>
       </c>
     </row>
   </sheetData>
